--- a/files/FA/FA_XINHWA.xlsx
+++ b/files/FA/FA_XINHWA.xlsx
@@ -737,7 +737,7 @@
     <x:t>http://www.bloomberg.com</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Westports Holdings Bhd (WPRTS MK) - Highlights</x:t>
+    <x:t xml:space="preserve">Xin Hwa Holdings Bhd (XINH MK) - Highlights</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">In Millions of MYR</x:t>
@@ -758,13 +758,7 @@
     <x:t xml:space="preserve">FY 2015</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Current/LTM</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FY 2016 Est</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FY 2017 Est</x:t>
+    <x:t xml:space="preserve">Current</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">12 Months Ending</x:t>
@@ -785,13 +779,7 @@
     <x:t xml:space="preserve">12/31/2015</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">09/30/2016</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/31/2016</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/31/2017</x:t>
+    <x:t xml:space="preserve">01/04/2017</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Market Capitalization</x:t>
@@ -881,30 +869,27 @@
     <x:t xml:space="preserve">Source: Bloomberg</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Westports Holdings Bhd (WPRTS MK) - Per Share</x:t>
+    <x:t xml:space="preserve">Xin Hwa Holdings Bhd (XINH MK) - Per Share</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">In Millions of MYR except Per Share</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Last 12M</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Basic Shares Outstanding</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">BS_SH_OUT</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Diluted Weighted Avg Shares</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">IS_SH_FOR_DILUTED_EPS</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">    Growth (YoY)</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Diluted Weighted Avg Shares</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">IS_SH_FOR_DILUTED_EPS</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Basic Weighted Avg Shares</x:t>
   </x:si>
   <x:si>
@@ -992,7 +977,7 @@
     <x:t xml:space="preserve">TANG_BOOK_VAL_PER_SH</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Westports Holdings Bhd (WPRTS MK) - Growth</x:t>
+    <x:t xml:space="preserve">Xin Hwa Holdings Bhd (XINH MK) - Growth</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1 Year Growth</x:t>
@@ -1031,18 +1016,18 @@
     <x:t xml:space="preserve">RR_DIL_EPS_CONT_OPS_GROWTH</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Dividend per Share</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DIVIDEND_PER_SHARE_1_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Accounts Receivable</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">ACCOUNTS_RECEIVABLE_GROWTH</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Inventory</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">INVENTORY_GROWTH</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Fixed Assets</x:t>
   </x:si>
   <x:si>
@@ -1067,6 +1052,12 @@
     <x:t xml:space="preserve">WORK_CAP_GROWTH</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Employees</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EMPL_GROWTH</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Accounts Payable</x:t>
   </x:si>
   <x:si>
@@ -1097,12 +1088,6 @@
     <x:t xml:space="preserve">GROWTH_IN_CAP</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Book Value per Share</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BVPS_GROWTH</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Cash From Operations</x:t>
   </x:si>
   <x:si>
@@ -1136,60 +1121,6 @@
     <x:t xml:space="preserve">5 Year Growth</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">GEO_GROW_NET_SALES</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GEO_GROW_EBITDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GEO_GROW_OPER_INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NET_INCOME_TO_COMMON_5_YR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ACCOUNTS_RECEIVABLE_5_YR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NET_FIXED_ASSETS_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GEO_GROW_TOT_ASSET</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">WORKING_CAPITAL_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ACCOUNTS_PAYABLE_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SHORT_TERM_DEBT_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TOTAL_DEBT_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GEO_GROW_TOT_SHRHLDR_EQY</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Total Capital 5 Year Growth</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TOTAL_CAPITAL_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GEO_GROW_CASH_OPER_ACT</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FREE_CASH_FLOW_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CASH_FLOW_TO_FIRM_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FCF_TO_FIRM_5_YEAR_GROWTH</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Sequential Growth</x:t>
   </x:si>
   <x:si>
@@ -1214,12 +1145,12 @@
     <x:t xml:space="preserve">EPS_DILUTED_BEF_ABNRML_SEQ_GRWTH</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">DPS_SEQUENTIAL_GROWTH</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">ACCOUNTS_RECEIVABLE_SEQ_GROWTH</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">INVENTORY_SEQUENTIAL_GROWTH</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">FIXED_ASSETS_SEQUENTIAL_GROWTH</x:t>
   </x:si>
   <x:si>
@@ -1232,6 +1163,9 @@
     <x:t xml:space="preserve">WORKING_CAPITAL_SEQ_GROWTH</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">EMPLOYEES_SEQUENTIAL_GROWTH</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">ACCOUNTS_PAYABLE_SEQ_GROWTH</x:t>
   </x:si>
   <x:si>
@@ -1247,9 +1181,6 @@
     <x:t xml:space="preserve">TOTAL_CAPITAL_SEQUENTIAL_GROWTH</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">BPS_SEQUENTIAL_GROWTH</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">CFO_SEQUENTIAL_GROWTH</x:t>
   </x:si>
   <x:si>
@@ -1259,33 +1190,15 @@
     <x:t xml:space="preserve">NET_CHANGE_IN_CASH_SEQ_GROWTH</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">FREE_CASH_FLOW_SEQUENTIAL_GROWTH</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">CF_TO_FIRM_SEQUENTIAL_GROWTH</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">FCF_TO_FIRM_SEQUENTIAL_GROWTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Westports Holdings Bhd (WPRTS MK) - Dividend Summary</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FY 2010</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/31/2010</x:t>
+    <x:t xml:space="preserve">Xin Hwa Holdings Bhd (XINH MK) - Dividend Summary</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Dividends per Share</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Dividend Yield</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DIVIDEND_12_MONTH_YIELD</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Dividend Payout Ratio</x:t>
   </x:si>
   <x:si>
@@ -1298,12 +1211,6 @@
     <x:t xml:space="preserve">CASH_DVD_COVERAGE</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Dividend Right Parity</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BS_DVD_RIGHT_PARITY</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Dividends Paid</x:t>
   </x:si>
   <x:si>
@@ -1340,25 +1247,13 @@
     <x:t xml:space="preserve">TRAIL_12M_DVD_PER_SH</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Westports Holdings Bhd (WPRTS MK) - Stock Value</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Current</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">12/29/2016</x:t>
+    <x:t xml:space="preserve">Xin Hwa Holdings Bhd (XINH MK) - Stock Value</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Last Price</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">PX_LAST</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  Period-over-Period % Change</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CHG_PCT_PERIOD</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Open Price</x:t>
@@ -3383,12 +3278,10 @@
     <x:cellStyle name="fa_data_current_bold_1_grouped" xfId="129"/>
     <x:cellStyle name="fa_data_current_bold_2_grouped" xfId="132"/>
     <x:cellStyle name="fa_data_current_italic_1_grouped" xfId="153"/>
-    <x:cellStyle name="fa_data_current_italic_2_grouped" xfId="156"/>
     <x:cellStyle name="fa_data_current_standard_0_grouped" xfId="102"/>
     <x:cellStyle name="fa_data_current_standard_1_grouped" xfId="105"/>
     <x:cellStyle name="fa_data_current_standard_2_grouped" xfId="108"/>
     <x:cellStyle name="fa_data_italic_1_grouped" xfId="141"/>
-    <x:cellStyle name="fa_data_italic_2_grouped" xfId="144"/>
     <x:cellStyle name="fa_data_standard_0_grouped" xfId="90"/>
     <x:cellStyle name="fa_data_standard_1_grouped" xfId="93"/>
     <x:cellStyle name="fa_data_standard_2_grouped" xfId="96"/>
@@ -3424,11 +3317,11 @@
     <x:workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Highlights" sheetId="2" r:id="Rc99d39617afb4894"/>
-    <x:sheet name="Per Share" sheetId="3" r:id="R957394c45d1d49b0"/>
-    <x:sheet name="Growth" sheetId="4" r:id="R6820a9e8398c4085"/>
-    <x:sheet name="Dividend Summary" sheetId="5" r:id="Rfcac52d318e74eb7"/>
-    <x:sheet name="Stock Value" sheetId="6" r:id="Re7b87131ac834780"/>
+    <x:sheet name="Highlights" sheetId="2" r:id="Rdb842208799a4100"/>
+    <x:sheet name="Per Share" sheetId="3" r:id="Re9d24d6d704b46a4"/>
+    <x:sheet name="Growth" sheetId="4" r:id="R1fdd1f3042694716"/>
+    <x:sheet name="Dividend Summary" sheetId="5" r:id="R8b63c3cdbfee4575"/>
+    <x:sheet name="Stock Value" sheetId="6" r:id="R1d8fbf4ea0324359"/>
   </x:sheets>
   <x:calcPr calcId="145621"/>
 </x:workbook>
@@ -3730,8 +3623,6 @@
     <x:col min="6" max="6" width="11.797714285714287" customWidth="1"/>
     <x:col min="7" max="7" width="11.797714285714287" customWidth="1"/>
     <x:col min="8" max="8" width="11.797714285714287" customWidth="1"/>
-    <x:col min="9" max="9" width="11.797714285714287" customWidth="1"/>
-    <x:col min="10" max="10" width="11.797714285714287" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1">
@@ -3743,8 +3634,6 @@
       <x:c r="F1" s="2"/>
       <x:c r="G1" s="2"/>
       <x:c r="H1" s="2"/>
-      <x:c r="I1" s="2"/>
-      <x:c r="J1" s="2"/>
     </x:row>
     <x:row r="2">
       <x:c r="A2" s="44" t="s">
@@ -3757,8 +3646,6 @@
       <x:c r="F2" s="44"/>
       <x:c r="G2" s="44"/>
       <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
     </x:row>
     <x:row r="3">
       <x:c r="A3" s="31"/>
@@ -3769,8 +3656,6 @@
       <x:c r="F3" s="31"/>
       <x:c r="G3" s="31"/>
       <x:c r="H3" s="31"/>
-      <x:c r="I3" s="31"/>
-      <x:c r="J3" s="31"/>
     </x:row>
     <x:row r="4">
       <x:c r="A4" s="33" t="s">
@@ -3795,182 +3680,160 @@
       <x:c r="H4" s="34" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="I4" s="34" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="J4" s="34" t="s">
-        <x:v>254</x:v>
-      </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" s="45" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B5" s="45"/>
       <x:c r="C5" s="35" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D5" s="35" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E5" s="35" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="D5" s="35" t="s">
+      <x:c r="F5" s="35" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="E5" s="35" t="s">
+      <x:c r="G5" s="35" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="F5" s="35" t="s">
+      <x:c r="H5" s="35" t="s">
         <x:v>259</x:v>
-      </x:c>
-      <x:c r="G5" s="35" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="H5" s="35" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="I5" s="35" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="J5" s="35" t="s">
-        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" s="36" t="s">
-        <x:v>264</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B6" s="36" t="s">
-        <x:v>265</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C6" s="76" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D6" s="76" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E6" s="76" t="n">
-        <x:v>8627.3</x:v>
-      </x:c>
-      <x:c r="F6" s="76" t="n">
-        <x:v>11457.6</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E6" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F6" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G6" s="76" t="n">
-        <x:v>14049.2</x:v>
+        <x:v>203.4</x:v>
       </x:c>
       <x:c r="H6" s="88" t="n">
-        <x:v>14799.4</x:v>
-      </x:c>
-      <x:c r="I6" s="76"/>
-      <x:c r="J6" s="76"/>
+        <x:v>219.6</x:v>
+      </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="46" t="s">
-        <x:v>267</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B7" s="46" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C7" s="52" t="n">
-        <x:v>351.039</x:v>
-      </x:c>
-      <x:c r="D7" s="52" t="n">
-        <x:v>325.526</x:v>
-      </x:c>
-      <x:c r="E7" s="52" t="n">
-        <x:v>341.656</x:v>
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C7" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D7" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E7" s="52" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F7" s="52" t="n">
-        <x:v>444.558</x:v>
+        <x:v>11.307</x:v>
       </x:c>
       <x:c r="G7" s="52" t="n">
-        <x:v>499.338</x:v>
+        <x:v>24.634926</x:v>
       </x:c>
       <x:c r="H7" s="64" t="n">
-        <x:v>322.315</x:v>
-      </x:c>
-      <x:c r="I7" s="52"/>
-      <x:c r="J7" s="52"/>
+        <x:v>24.634926</x:v>
+      </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="46" t="s">
-        <x:v>269</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B8" s="46" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="C8" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="52" t="n">
-        <x:v>0</x:v>
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C8" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D8" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E8" s="52" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F8" s="52" t="n">
-        <x:v>0</x:v>
+        <x:v>0.377</x:v>
       </x:c>
       <x:c r="G8" s="52" t="n">
-        <x:v>0</x:v>
+        <x:v>0.505086</x:v>
       </x:c>
       <x:c r="H8" s="64" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I8" s="52"/>
-      <x:c r="J8" s="52"/>
+        <x:v>0.505086</x:v>
+      </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" s="46" t="s">
-        <x:v>271</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B9" s="46" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="C9" s="52" t="n">
-        <x:v>795</x:v>
-      </x:c>
-      <x:c r="D9" s="52" t="n">
-        <x:v>695</x:v>
-      </x:c>
-      <x:c r="E9" s="52" t="n">
-        <x:v>900</x:v>
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C9" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D9" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E9" s="52" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F9" s="52" t="n">
-        <x:v>1150</x:v>
+        <x:v>41.131</x:v>
       </x:c>
       <x:c r="G9" s="52" t="n">
-        <x:v>1150</x:v>
+        <x:v>39.176113</x:v>
       </x:c>
       <x:c r="H9" s="64" t="n">
-        <x:v>1150</x:v>
-      </x:c>
-      <x:c r="I9" s="52"/>
-      <x:c r="J9" s="52"/>
+        <x:v>39.176113</x:v>
+      </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="36" t="s">
-        <x:v>273</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B10" s="36" t="s">
-        <x:v>274</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C10" s="76" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D10" s="76" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E10" s="76" t="n">
-        <x:v>9185.644</x:v>
-      </x:c>
-      <x:c r="F10" s="76" t="n">
-        <x:v>12163.042</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E10" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F10" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G10" s="76" t="n">
-        <x:v>14699.862</x:v>
+        <x:v>218.446273</x:v>
       </x:c>
       <x:c r="H10" s="88" t="n">
-        <x:v>15627.085</x:v>
-      </x:c>
-      <x:c r="I10" s="76"/>
-      <x:c r="J10" s="76"/>
+        <x:v>234.646273</x:v>
+      </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" s="36"/>
@@ -3981,71 +3844,55 @@
       <x:c r="F11" s="73"/>
       <x:c r="G11" s="73"/>
       <x:c r="H11" s="85"/>
-      <x:c r="I11" s="73"/>
-      <x:c r="J11" s="73"/>
     </x:row>
     <x:row r="12">
       <x:c r="A12" s="36" t="s">
-        <x:v>275</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B12" s="36" t="s">
-        <x:v>276</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C12" s="76" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D12" s="76" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E12" s="76" t="n">
-        <x:v>1712.618</x:v>
-      </x:c>
-      <x:c r="F12" s="76" t="n">
-        <x:v>1562.079</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E12" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F12" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G12" s="76" t="n">
-        <x:v>1681.783</x:v>
-      </x:c>
-      <x:c r="H12" s="88" t="n">
-        <x:v>1938.758</x:v>
-      </x:c>
-      <x:c r="I12" s="76" t="n">
-        <x:v>1785.667</x:v>
-      </x:c>
-      <x:c r="J12" s="76" t="n">
-        <x:v>1994.333</x:v>
-      </x:c>
+        <x:v>107.858</x:v>
+      </x:c>
+      <x:c r="H12" s="88"/>
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="47" t="s">
-        <x:v>277</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B13" s="47" t="s">
-        <x:v>276</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C13" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D13" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E13" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F13" s="100" t="n">
-        <x:v>-8.78999286472523</x:v>
-      </x:c>
-      <x:c r="G13" s="100" t="n">
-        <x:v>7.66312075125521</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F13" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G13" s="100" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H13" s="112" t="n">
-        <x:v>21.9909341682691</x:v>
-      </x:c>
-      <x:c r="I13" s="100" t="n">
-        <x:v>6.17701570297715</x:v>
-      </x:c>
-      <x:c r="J13" s="100" t="n">
-        <x:v>11.6856054348319</x:v>
+        <x:v>9.31929994354385</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -4053,255 +3900,193 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B14" s="36" t="s">
-        <x:v>278</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C14" s="76" t="n">
-        <x:v>604.617</x:v>
+        <x:v>18.263</x:v>
       </x:c>
       <x:c r="D14" s="76" t="n">
-        <x:v>668.773</x:v>
+        <x:v>28.513</x:v>
       </x:c>
       <x:c r="E14" s="76" t="n">
-        <x:v>737.5</x:v>
+        <x:v>30.902</x:v>
       </x:c>
       <x:c r="F14" s="76" t="n">
-        <x:v>814.988</x:v>
+        <x:v>37.489</x:v>
       </x:c>
       <x:c r="G14" s="76" t="n">
-        <x:v>881.628</x:v>
-      </x:c>
-      <x:c r="H14" s="88" t="n">
-        <x:v>971.951992553711</x:v>
-      </x:c>
-      <x:c r="I14" s="76" t="n">
-        <x:v>1001.77704367</x:v>
-      </x:c>
-      <x:c r="J14" s="76" t="n">
-        <x:v>1113.79509384</x:v>
-      </x:c>
+        <x:v>40.550998</x:v>
+      </x:c>
+      <x:c r="H14" s="88"/>
     </x:row>
     <x:row r="15">
       <x:c r="A15" s="47" t="s">
-        <x:v>279</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B15" s="47" t="s">
-        <x:v>278</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C15" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D15" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E15" s="100" t="n">
-        <x:v>43.062726188794</x:v>
-      </x:c>
-      <x:c r="F15" s="100" t="n">
-        <x:v>52.1732895711421</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E15" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F15" s="100" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G15" s="100" t="n">
-        <x:v>52.4222209405137</x:v>
-      </x:c>
-      <x:c r="H15" s="112" t="n">
-        <x:v>50.1327134461192</x:v>
-      </x:c>
-      <x:c r="I15" s="100" t="n">
-        <x:v>56.101</x:v>
-      </x:c>
-      <x:c r="J15" s="100" t="n">
-        <x:v>55.848</x:v>
-      </x:c>
+        <x:v>37.5966530067311</x:v>
+      </x:c>
+      <x:c r="H15" s="112"/>
     </x:row>
     <x:row r="16">
       <x:c r="A16" s="36" t="s">
-        <x:v>280</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B16" s="36" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="C16" s="76" t="n">
-        <x:v>500.358</x:v>
-      </x:c>
-      <x:c r="D16" s="76" t="n">
-        <x:v>560.894</x:v>
-      </x:c>
-      <x:c r="E16" s="76" t="n">
-        <x:v>685.433</x:v>
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C16" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D16" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E16" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F16" s="76" t="n">
-        <x:v>785.228</x:v>
+        <x:v>24.463</x:v>
       </x:c>
       <x:c r="G16" s="76" t="n">
-        <x:v>866.059</x:v>
-      </x:c>
-      <x:c r="H16" s="88" t="n">
-        <x:v>935.31</x:v>
-      </x:c>
-      <x:c r="I16" s="76" t="n">
-        <x:v>974.467</x:v>
-      </x:c>
-      <x:c r="J16" s="76" t="n">
-        <x:v>1037.733</x:v>
-      </x:c>
+        <x:v>24.585229</x:v>
+      </x:c>
+      <x:c r="H16" s="88"/>
     </x:row>
     <x:row r="17">
       <x:c r="A17" s="47" t="s">
-        <x:v>279</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B17" s="47" t="s">
-        <x:v>280</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C17" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D17" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E17" s="100" t="n">
-        <x:v>40.0225269149337</x:v>
-      </x:c>
-      <x:c r="F17" s="100" t="n">
-        <x:v>50.2681362466303</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E17" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F17" s="100" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G17" s="100" t="n">
-        <x:v>51.4964772506322</x:v>
-      </x:c>
-      <x:c r="H17" s="112" t="n">
-        <x:v>48.2427409712816</x:v>
-      </x:c>
-      <x:c r="I17" s="100" t="n">
-        <x:v>54.57159705589</x:v>
-      </x:c>
-      <x:c r="J17" s="100" t="n">
-        <x:v>52.0340885900198</x:v>
-      </x:c>
+        <x:v>22.7940709080458</x:v>
+      </x:c>
+      <x:c r="H17" s="112"/>
     </x:row>
     <x:row r="18">
       <x:c r="A18" s="36" t="s">
-        <x:v>281</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B18" s="36" t="s">
-        <x:v>282</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C18" s="76" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D18" s="76" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E18" s="76" t="n">
-        <x:v>435.305</x:v>
-      </x:c>
-      <x:c r="F18" s="76" t="n">
-        <x:v>512.205</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E18" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F18" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G18" s="76" t="n">
-        <x:v>504.864</x:v>
-      </x:c>
-      <x:c r="H18" s="88" t="n">
-        <x:v>614.528</x:v>
-      </x:c>
-      <x:c r="I18" s="76" t="n">
-        <x:v>620.063</x:v>
-      </x:c>
-      <x:c r="J18" s="76" t="n">
-        <x:v>653.875</x:v>
-      </x:c>
+        <x:v>15.003</x:v>
+      </x:c>
+      <x:c r="H18" s="88"/>
     </x:row>
     <x:row r="19">
       <x:c r="A19" s="47" t="s">
-        <x:v>279</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B19" s="47" t="s">
-        <x:v>282</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C19" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D19" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E19" s="100" t="n">
-        <x:v>25.4175186760854</x:v>
-      </x:c>
-      <x:c r="F19" s="100" t="n">
-        <x:v>32.7899549254551</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E19" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F19" s="100" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G19" s="100" t="n">
-        <x:v>30.0195685174603</x:v>
-      </x:c>
-      <x:c r="H19" s="112" t="n">
-        <x:v>31.6969936423215</x:v>
-      </x:c>
-      <x:c r="I19" s="100" t="n">
-        <x:v>34.7244475033699</x:v>
-      </x:c>
-      <x:c r="J19" s="100" t="n">
-        <x:v>32.7866509755392</x:v>
-      </x:c>
+        <x:v>13.9099556824714</x:v>
+      </x:c>
+      <x:c r="H19" s="112"/>
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="36" t="s">
-        <x:v>283</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B20" s="36" t="s">
-        <x:v>284</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C20" s="79" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D20" s="79" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E20" s="79" t="n">
-        <x:v>0.139</x:v>
-      </x:c>
-      <x:c r="F20" s="79" t="n">
-        <x:v>0.15</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E20" s="79" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F20" s="79" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G20" s="79" t="n">
-        <x:v>0.148</x:v>
-      </x:c>
-      <x:c r="H20" s="91" t="n">
-        <x:v>0.18</x:v>
-      </x:c>
-      <x:c r="I20" s="79" t="n">
-        <x:v>0.182</x:v>
-      </x:c>
-      <x:c r="J20" s="79" t="n">
-        <x:v>0.192</x:v>
-      </x:c>
+        <x:v>0.083</x:v>
+      </x:c>
+      <x:c r="H20" s="91"/>
     </x:row>
     <x:row r="21">
       <x:c r="A21" s="47" t="s">
-        <x:v>277</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B21" s="47" t="s">
-        <x:v>285</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C21" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D21" s="100" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E21" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F21" s="100" t="n">
-        <x:v>7.913669</x:v>
-      </x:c>
-      <x:c r="G21" s="100" t="n">
-        <x:v>-1.333333</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F21" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G21" s="100" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H21" s="112" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I21" s="100" t="n">
-        <x:v>22.972972972973</x:v>
-      </x:c>
-      <x:c r="J21" s="100" t="n">
-        <x:v>5.4945054945055</x:v>
+        <x:v>-5.55555555555554</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -4313,104 +4098,82 @@
       <x:c r="F22" s="73"/>
       <x:c r="G22" s="73"/>
       <x:c r="H22" s="85"/>
-      <x:c r="I22" s="73"/>
-      <x:c r="J22" s="73"/>
     </x:row>
     <x:row r="23">
       <x:c r="A23" s="36" t="s">
-        <x:v>286</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B23" s="36" t="s">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="C23" s="76" t="n">
-        <x:v>469.421</x:v>
-      </x:c>
-      <x:c r="D23" s="76" t="n">
-        <x:v>595.749</x:v>
-      </x:c>
-      <x:c r="E23" s="76" t="n">
-        <x:v>656.742</x:v>
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C23" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D23" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E23" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F23" s="76" t="n">
-        <x:v>573.845</x:v>
+        <x:v>16.485</x:v>
       </x:c>
       <x:c r="G23" s="76" t="n">
-        <x:v>729.975</x:v>
-      </x:c>
-      <x:c r="H23" s="88" t="n">
-        <x:v>716.947</x:v>
-      </x:c>
-      <x:c r="I23" s="76"/>
-      <x:c r="J23" s="76"/>
+        <x:v>17.645679</x:v>
+      </x:c>
+      <x:c r="H23" s="88"/>
     </x:row>
     <x:row r="24">
       <x:c r="A24" s="36" t="s">
-        <x:v>288</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B24" s="36" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="C24" s="76" t="n">
-        <x:v>-498.849</x:v>
-      </x:c>
-      <x:c r="D24" s="76" t="n">
-        <x:v>-447.784</x:v>
-      </x:c>
-      <x:c r="E24" s="76" t="n">
-        <x:v>-607.366</x:v>
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="C24" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D24" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E24" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F24" s="76" t="n">
-        <x:v>-320.527</x:v>
+        <x:v>-33.602</x:v>
       </x:c>
       <x:c r="G24" s="76" t="n">
-        <x:v>-251.427</x:v>
-      </x:c>
-      <x:c r="H24" s="88" t="n">
-        <x:v>-391.057</x:v>
-      </x:c>
-      <x:c r="I24" s="76" t="n">
-        <x:v>-618.2</x:v>
-      </x:c>
-      <x:c r="J24" s="76" t="n">
-        <x:v>-325.9</x:v>
-      </x:c>
+        <x:v>-20.78703</x:v>
+      </x:c>
+      <x:c r="H24" s="88"/>
     </x:row>
     <x:row r="25">
       <x:c r="A25" s="36" t="s">
-        <x:v>290</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B25" s="36" t="s">
-        <x:v>291</x:v>
-      </x:c>
-      <x:c r="C25" s="76" t="n">
-        <x:v>-29.428</x:v>
-      </x:c>
-      <x:c r="D25" s="76" t="n">
-        <x:v>147.965</x:v>
-      </x:c>
-      <x:c r="E25" s="76" t="n">
-        <x:v>49.376</x:v>
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="C25" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D25" s="76" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E25" s="76" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F25" s="76" t="n">
-        <x:v>253.318</x:v>
+        <x:v>-17.117</x:v>
       </x:c>
       <x:c r="G25" s="76" t="n">
-        <x:v>478.548</x:v>
-      </x:c>
-      <x:c r="H25" s="88" t="n">
-        <x:v>325.89</x:v>
-      </x:c>
-      <x:c r="I25" s="76" t="n">
-        <x:v>345.85</x:v>
-      </x:c>
-      <x:c r="J25" s="76" t="n">
-        <x:v>568.697</x:v>
-      </x:c>
+        <x:v>-3.141351</x:v>
+      </x:c>
+      <x:c r="H25" s="88"/>
     </x:row>
     <x:row r="26">
       <x:c r="A26" s="43" t="s">
-        <x:v>292</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B26" s="43"/>
       <x:c r="C26" s="43"/>
@@ -4419,8 +4182,6 @@
       <x:c r="F26" s="43"/>
       <x:c r="G26" s="43"/>
       <x:c r="H26" s="43"/>
-      <x:c r="I26" s="43"/>
-      <x:c r="J26" s="43"/>
     </x:row>
   </x:sheetData>
 </x:worksheet>
@@ -4434,9 +4195,592 @@
     <x:col min="3" max="3" width="11.797714285714287" customWidth="1"/>
     <x:col min="4" max="4" width="11.797714285714287" customWidth="1"/>
     <x:col min="5" max="5" width="11.797714285714287" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" s="2"/>
+      <x:c r="B1" s="2"/>
+      <x:c r="C1" s="2"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="2"/>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" s="44" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="B2" s="44"/>
+      <x:c r="C2" s="44"/>
+      <x:c r="D2" s="44"/>
+      <x:c r="E2" s="44"/>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" s="31"/>
+      <x:c r="B3" s="31"/>
+      <x:c r="C3" s="31"/>
+      <x:c r="D3" s="31"/>
+      <x:c r="E3" s="31"/>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" s="33" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B4" s="33"/>
+      <x:c r="C4" s="34" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D4" s="34" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E4" s="34" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" s="45" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B5" s="45"/>
+      <x:c r="C5" s="35" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="D5" s="35" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="E5" s="35" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" s="46" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B6" s="46" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="C6" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D6" s="52" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="E6" s="64" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" s="46" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B7" s="46" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="C7" s="52" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D7" s="52" t="n">
+        <x:v>164.2575</x:v>
+      </x:c>
+      <x:c r="E7" s="64" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B8" s="47" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="C8" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D8" s="100" t="n">
+        <x:v>-8.74583333333334</x:v>
+      </x:c>
+      <x:c r="E8" s="112"/>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" s="46" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B9" s="46" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="C9" s="52" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D9" s="52" t="n">
+        <x:v>164.2575</x:v>
+      </x:c>
+      <x:c r="E9" s="64" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B10" s="47" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="C10" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D10" s="100" t="n">
+        <x:v>-8.74583333333334</x:v>
+      </x:c>
+      <x:c r="E10" s="112"/>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" s="46"/>
+      <x:c r="B11" s="49"/>
+      <x:c r="C11" s="49"/>
+      <x:c r="D11" s="49"/>
+      <x:c r="E11" s="61"/>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" s="36" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B12" s="73"/>
+      <x:c r="C12" s="73"/>
+      <x:c r="D12" s="73"/>
+      <x:c r="E12" s="85"/>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" s="46" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B13" s="46" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C13" s="55" t="n">
+        <x:v>0.614628</x:v>
+      </x:c>
+      <x:c r="D13" s="55" t="n">
+        <x:v>0.656775</x:v>
+      </x:c>
+      <x:c r="E13" s="67"/>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B14" s="47" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C14" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D14" s="100" t="n">
+        <x:v>6.857349</x:v>
+      </x:c>
+      <x:c r="E14" s="112"/>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" s="46" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B15" s="46" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="C15" s="55" t="n">
+        <x:v>0.135906</x:v>
+      </x:c>
+      <x:c r="D15" s="55" t="n">
+        <x:v>0.149675</x:v>
+      </x:c>
+      <x:c r="E15" s="67"/>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B16" s="47" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="C16" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D16" s="100" t="n">
+        <x:v>10.1312671993878</x:v>
+      </x:c>
+      <x:c r="E16" s="112"/>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" s="46" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="B17" s="46" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C17" s="55" t="n">
+        <x:v>0.113039</x:v>
+      </x:c>
+      <x:c r="D17" s="55" t="n">
+        <x:v>0.117184</x:v>
+      </x:c>
+      <x:c r="E17" s="67"/>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B18" s="47" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C18" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D18" s="100" t="n">
+        <x:v>3.66687603393519</x:v>
+      </x:c>
+      <x:c r="E18" s="112"/>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" s="46" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B19" s="46" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C19" s="55" t="n">
+        <x:v>0.087522</x:v>
+      </x:c>
+      <x:c r="D19" s="55" t="n">
+        <x:v>0.0971</x:v>
+      </x:c>
+      <x:c r="E19" s="67"/>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B20" s="47" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C20" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D20" s="100" t="n">
+        <x:v>10.943534</x:v>
+      </x:c>
+      <x:c r="E20" s="112" t="n">
+        <x:v>-6.59340659340659</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" s="46" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B21" s="46" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C21" s="55" t="n">
+        <x:v>0.087522</x:v>
+      </x:c>
+      <x:c r="D21" s="55" t="n">
+        <x:v>0.0971</x:v>
+      </x:c>
+      <x:c r="E21" s="67"/>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B22" s="47" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C22" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D22" s="100" t="n">
+        <x:v>10.9435341971162</x:v>
+      </x:c>
+      <x:c r="E22" s="112"/>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" s="46" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B23" s="46" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C23" s="55" t="n">
+        <x:v>0.087522</x:v>
+      </x:c>
+      <x:c r="D23" s="55" t="n">
+        <x:v>0.097122</x:v>
+      </x:c>
+      <x:c r="E23" s="67"/>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B24" s="47" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C24" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D24" s="100" t="n">
+        <x:v>10.968671</x:v>
+      </x:c>
+      <x:c r="E24" s="112"/>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" s="46" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B25" s="46" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="C25" s="55" t="n">
+        <x:v>0.087522</x:v>
+      </x:c>
+      <x:c r="D25" s="55" t="n">
+        <x:v>0.0971</x:v>
+      </x:c>
+      <x:c r="E25" s="67"/>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B26" s="47" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="C26" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D26" s="100" t="n">
+        <x:v>10.943534</x:v>
+      </x:c>
+      <x:c r="E26" s="112"/>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" s="46" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B27" s="46" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C27" s="55" t="n">
+        <x:v>0.087522</x:v>
+      </x:c>
+      <x:c r="D27" s="55" t="n">
+        <x:v>0.0971</x:v>
+      </x:c>
+      <x:c r="E27" s="67"/>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B28" s="47" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C28" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D28" s="100" t="n">
+        <x:v>10.943534</x:v>
+      </x:c>
+      <x:c r="E28" s="112"/>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" s="46" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="B29" s="46" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="C29" s="55" t="n">
+        <x:v>0.087522</x:v>
+      </x:c>
+      <x:c r="D29" s="55" t="n">
+        <x:v>0.097122</x:v>
+      </x:c>
+      <x:c r="E29" s="67"/>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B30" s="47" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="C30" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D30" s="100" t="n">
+        <x:v>10.9686707342154</x:v>
+      </x:c>
+      <x:c r="E30" s="112"/>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" s="46" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B31" s="46" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C31" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D31" s="55" t="n">
+        <x:v>0.015</x:v>
+      </x:c>
+      <x:c r="E31" s="67"/>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" s="46"/>
+      <x:c r="B32" s="49"/>
+      <x:c r="C32" s="49"/>
+      <x:c r="D32" s="49"/>
+      <x:c r="E32" s="61"/>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" s="46" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B33" s="46" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="C33" s="55" t="n">
+        <x:v>0.091583</x:v>
+      </x:c>
+      <x:c r="D33" s="55" t="n">
+        <x:v>0.107427</x:v>
+      </x:c>
+      <x:c r="E33" s="67"/>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B34" s="47" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="C34" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D34" s="100" t="n">
+        <x:v>17.3001539587041</x:v>
+      </x:c>
+      <x:c r="E34" s="112"/>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" s="46" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B35" s="46" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C35" s="55" t="n">
+        <x:v>-0.095094</x:v>
+      </x:c>
+      <x:c r="D35" s="55" t="n">
+        <x:v>-0.019125</x:v>
+      </x:c>
+      <x:c r="E35" s="67"/>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" s="47" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B36" s="47" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C36" s="100" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D36" s="100" t="n">
+        <x:v>79.888321029718</x:v>
+      </x:c>
+      <x:c r="E36" s="112"/>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" s="46"/>
+      <x:c r="B37" s="49"/>
+      <x:c r="C37" s="49"/>
+      <x:c r="D37" s="49"/>
+      <x:c r="E37" s="61"/>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" s="46" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B38" s="46" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="C38" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D38" s="55" t="n">
+        <x:v>0.136861</x:v>
+      </x:c>
+      <x:c r="E38" s="67" t="n">
+        <x:v>0.1368607</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" s="46" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B39" s="46" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C39" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D39" s="55" t="n">
+        <x:v>0.708537</x:v>
+      </x:c>
+      <x:c r="E39" s="67" t="n">
+        <x:v>7.0853728333333299E-001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" s="46" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B40" s="46" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="C40" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D40" s="55" t="n">
+        <x:v>0.708537</x:v>
+      </x:c>
+      <x:c r="E40" s="67" t="n">
+        <x:v>7.0853728333333299E-001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" s="43" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B41" s="43"/>
+      <x:c r="C41" s="43"/>
+      <x:c r="D41" s="43"/>
+      <x:c r="E41" s="43"/>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:cols>
+    <x:col min="1" max="1" width="35.202857142857148" customWidth="1"/>
+    <x:col min="2" max="2" width="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.797714285714287" customWidth="1"/>
+    <x:col min="4" max="4" width="11.797714285714287" customWidth="1"/>
+    <x:col min="5" max="5" width="11.797714285714287" customWidth="1"/>
     <x:col min="6" max="6" width="11.797714285714287" customWidth="1"/>
-    <x:col min="7" max="7" width="11.797714285714287" customWidth="1"/>
-    <x:col min="8" max="8" width="11.797714285714287" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1">
@@ -4446,20 +4790,16 @@
       <x:c r="D1" s="2"/>
       <x:c r="E1" s="2"/>
       <x:c r="F1" s="2"/>
-      <x:c r="G1" s="2"/>
-      <x:c r="H1" s="2"/>
     </x:row>
     <x:row r="2">
       <x:c r="A2" s="44" t="s">
-        <x:v>293</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B2" s="44"/>
       <x:c r="C2" s="44"/>
       <x:c r="D2" s="44"/>
       <x:c r="E2" s="44"/>
       <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
     </x:row>
     <x:row r="3">
       <x:c r="A3" s="31"/>
@@ -4468,695 +4808,567 @@
       <x:c r="D3" s="31"/>
       <x:c r="E3" s="31"/>
       <x:c r="F3" s="31"/>
-      <x:c r="G3" s="31"/>
-      <x:c r="H3" s="31"/>
     </x:row>
     <x:row r="4">
       <x:c r="A4" s="33" t="s">
-        <x:v>294</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="D4" s="34" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="D4" s="34" t="s">
+      <x:c r="E4" s="34" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="E4" s="34" t="s">
+      <x:c r="F4" s="34" t="s">
         <x:v>251</x:v>
-      </x:c>
-      <x:c r="F4" s="34" t="s">
-        <x:v>295</x:v>
-      </x:c>
-      <x:c r="G4" s="34" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="H4" s="34" t="s">
-        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" s="45" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B5" s="45"/>
       <x:c r="C5" s="35" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="D5" s="35" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E5" s="35" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="F5" s="35" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="D5" s="35" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="E5" s="35" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="F5" s="35" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="G5" s="35" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="H5" s="35" t="s">
-        <x:v>263</x:v>
-      </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="A6" s="46" t="s">
-        <x:v>296</x:v>
-      </x:c>
-      <x:c r="B6" s="46" t="s">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="C6" s="52" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="D6" s="52" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="E6" s="52" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="F6" s="64" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="G6" s="52"/>
-      <x:c r="H6" s="52"/>
+      <x:c r="A6" s="36" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B6" s="73"/>
+      <x:c r="C6" s="73"/>
+      <x:c r="D6" s="73"/>
+      <x:c r="E6" s="73"/>
+      <x:c r="F6" s="73"/>
     </x:row>
     <x:row r="7">
-      <x:c r="A7" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B7" s="47" t="s">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="C7" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D7" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="112"/>
-      <x:c r="G7" s="100"/>
-      <x:c r="H7" s="100"/>
+      <x:c r="A7" s="46" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="46" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="C7" s="55" t="n">
+        <x:v>22.545845</x:v>
+      </x:c>
+      <x:c r="D7" s="55" t="n">
+        <x:v>7.321004</x:v>
+      </x:c>
+      <x:c r="E7" s="55" t="n">
+        <x:v>13.011901</x:v>
+      </x:c>
+      <x:c r="F7" s="55" t="n">
+        <x:v>-2.488217</x:v>
+      </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="46" t="s">
-        <x:v>299</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B8" s="46" t="s">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="C8" s="52" t="n">
-        <x:v>3140</x:v>
-      </x:c>
-      <x:c r="D8" s="52" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="E8" s="52" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="F8" s="64" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="G8" s="52"/>
-      <x:c r="H8" s="52"/>
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C8" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D8" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E8" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F8" s="55" t="n">
+        <x:v>0.499648</x:v>
+      </x:c>
     </x:row>
     <x:row r="9">
-      <x:c r="A9" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B9" s="47" t="s">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="C9" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D9" s="100" t="n">
-        <x:v>8.59872611464968</x:v>
-      </x:c>
-      <x:c r="E9" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="112"/>
-      <x:c r="G9" s="100"/>
-      <x:c r="H9" s="100"/>
+      <x:c r="A9" s="46" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="B9" s="46" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C9" s="55" t="n">
+        <x:v>79.707917</x:v>
+      </x:c>
+      <x:c r="D9" s="55" t="n">
+        <x:v>3.342295</x:v>
+      </x:c>
+      <x:c r="E9" s="55" t="n">
+        <x:v>20.303908</x:v>
+      </x:c>
+      <x:c r="F9" s="55" t="n">
+        <x:v>-5.399744</x:v>
+      </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="46" t="s">
-        <x:v>301</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B10" s="46" t="s">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="C10" s="52" t="n">
-        <x:v>3140</x:v>
-      </x:c>
-      <x:c r="D10" s="52" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="E10" s="52" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="F10" s="64" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="G10" s="52"/>
-      <x:c r="H10" s="52"/>
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C10" s="55" t="n">
+        <x:v>100.268393</x:v>
+      </x:c>
+      <x:c r="D10" s="55" t="n">
+        <x:v>9.389042</x:v>
+      </x:c>
+      <x:c r="E10" s="55" t="n">
+        <x:v>13.53416</x:v>
+      </x:c>
+      <x:c r="F10" s="55" t="n">
+        <x:v>1.29178</x:v>
+      </x:c>
     </x:row>
     <x:row r="11">
-      <x:c r="A11" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B11" s="47" t="s">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="C11" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D11" s="100" t="n">
-        <x:v>8.59872611464968</x:v>
-      </x:c>
-      <x:c r="E11" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F11" s="112"/>
-      <x:c r="G11" s="100"/>
-      <x:c r="H11" s="100"/>
+      <x:c r="A11" s="46" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B11" s="46" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="C11" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D11" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E11" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F11" s="55" t="n">
+        <x:v>10.943534</x:v>
+      </x:c>
     </x:row>
     <x:row r="12">
-      <x:c r="A12" s="46"/>
-      <x:c r="B12" s="49"/>
-      <x:c r="C12" s="49"/>
-      <x:c r="D12" s="49"/>
-      <x:c r="E12" s="49"/>
-      <x:c r="F12" s="61"/>
-      <x:c r="G12" s="49"/>
-      <x:c r="H12" s="49"/>
+      <x:c r="A12" s="46" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B12" s="46" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="C12" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D12" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E12" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F12" s="55" t="n">
+        <x:v>10.943534</x:v>
+      </x:c>
     </x:row>
     <x:row r="13">
-      <x:c r="A13" s="36" t="s">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="B13" s="73"/>
-      <x:c r="C13" s="73"/>
-      <x:c r="D13" s="73"/>
-      <x:c r="E13" s="73"/>
-      <x:c r="F13" s="85"/>
-      <x:c r="G13" s="73"/>
-      <x:c r="H13" s="73"/>
+      <x:c r="A13" s="46" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B13" s="46" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C13" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D13" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E13" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F13" s="55" t="n">
+        <x:v>10.968671</x:v>
+      </x:c>
     </x:row>
     <x:row r="14">
-      <x:c r="A14" s="46" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B14" s="46" t="s">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="C14" s="55" t="n">
-        <x:v>0.54542</x:v>
-      </x:c>
-      <x:c r="D14" s="55" t="n">
-        <x:v>0.458088</x:v>
-      </x:c>
-      <x:c r="E14" s="55" t="n">
-        <x:v>0.492976</x:v>
-      </x:c>
-      <x:c r="F14" s="67" t="n">
-        <x:v>0.56855073313783</x:v>
-      </x:c>
-      <x:c r="G14" s="55"/>
-      <x:c r="H14" s="55"/>
+      <x:c r="A14" s="46"/>
+      <x:c r="B14" s="49"/>
+      <x:c r="C14" s="49"/>
+      <x:c r="D14" s="49"/>
+      <x:c r="E14" s="49"/>
+      <x:c r="F14" s="49"/>
     </x:row>
     <x:row r="15">
-      <x:c r="A15" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B15" s="47" t="s">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="C15" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D15" s="100" t="n">
-        <x:v>-16.0119</x:v>
-      </x:c>
-      <x:c r="E15" s="100" t="n">
-        <x:v>7.616132</x:v>
-      </x:c>
-      <x:c r="F15" s="112" t="n">
-        <x:v>21.9909341682691</x:v>
-      </x:c>
-      <x:c r="G15" s="100"/>
-      <x:c r="H15" s="100"/>
+      <x:c r="A15" s="46" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B15" s="46" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="C15" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D15" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E15" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F15" s="55" t="n">
+        <x:v>-3.16954</x:v>
+      </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" s="46" t="s">
-        <x:v>280</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B16" s="46" t="s">
-        <x:v>305</x:v>
-      </x:c>
-      <x:c r="C16" s="55" t="n">
-        <x:v>0.218291</x:v>
-      </x:c>
-      <x:c r="D16" s="55" t="n">
-        <x:v>0.230272</x:v>
-      </x:c>
-      <x:c r="E16" s="55" t="n">
-        <x:v>0.253976</x:v>
-      </x:c>
-      <x:c r="F16" s="67" t="n">
-        <x:v>2.7428445747800601E-001</x:v>
-      </x:c>
-      <x:c r="G16" s="55"/>
-      <x:c r="H16" s="55"/>
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="C16" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D16" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E16" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F16" s="55" t="n">
+        <x:v>11.546452</x:v>
+      </x:c>
     </x:row>
     <x:row r="17">
-      <x:c r="A17" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B17" s="47" t="s">
-        <x:v>305</x:v>
-      </x:c>
-      <x:c r="C17" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D17" s="100" t="n">
-        <x:v>5.48854510721926</x:v>
-      </x:c>
-      <x:c r="E17" s="100" t="n">
-        <x:v>10.2939132851584</x:v>
-      </x:c>
-      <x:c r="F17" s="112" t="n">
-        <x:v>10.3238317216845</x:v>
-      </x:c>
-      <x:c r="G17" s="100"/>
-      <x:c r="H17" s="100"/>
+      <x:c r="A17" s="46" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B17" s="46" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="C17" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D17" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E17" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F17" s="55" t="n">
+        <x:v>-0.539078</x:v>
+      </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" s="46" t="s">
-        <x:v>306</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B18" s="46" t="s">
-        <x:v>307</x:v>
-      </x:c>
-      <x:c r="C18" s="55" t="n">
-        <x:v>0.179804</x:v>
-      </x:c>
-      <x:c r="D18" s="55" t="n">
-        <x:v>0.188427</x:v>
-      </x:c>
-      <x:c r="E18" s="55" t="n">
-        <x:v>0.208979</x:v>
-      </x:c>
-      <x:c r="F18" s="67" t="n">
-        <x:v>2.2700791788856300E-001</x:v>
-      </x:c>
-      <x:c r="G18" s="55"/>
-      <x:c r="H18" s="55"/>
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C18" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D18" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E18" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F18" s="55" t="n">
+        <x:v>7.206407</x:v>
+      </x:c>
     </x:row>
     <x:row r="19">
-      <x:c r="A19" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B19" s="47" t="s">
-        <x:v>307</x:v>
-      </x:c>
-      <x:c r="C19" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D19" s="100" t="n">
-        <x:v>4.79577762452449</x:v>
-      </x:c>
-      <x:c r="E19" s="100" t="n">
-        <x:v>10.907141757816</x:v>
-      </x:c>
-      <x:c r="F19" s="112" t="n">
-        <x:v>7.22768066777573</x:v>
-      </x:c>
-      <x:c r="G19" s="100"/>
-      <x:c r="H19" s="100"/>
+      <x:c r="A19" s="46" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B19" s="46" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="C19" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D19" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E19" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F19" s="55" t="n">
+        <x:v>14.076664</x:v>
+      </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="46" t="s">
-        <x:v>308</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B20" s="46" t="s">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="C20" s="55" t="n">
-        <x:v>0.1386</x:v>
-      </x:c>
-      <x:c r="D20" s="55" t="n">
-        <x:v>0.1502</x:v>
-      </x:c>
-      <x:c r="E20" s="55" t="n">
-        <x:v>0.1481</x:v>
-      </x:c>
-      <x:c r="F20" s="67" t="n">
-        <x:v>0.1803</x:v>
-      </x:c>
-      <x:c r="G20" s="55" t="n">
-        <x:v>0.181</x:v>
-      </x:c>
-      <x:c r="H20" s="55" t="n">
-        <x:v>0.189</x:v>
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="C20" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D20" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E20" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F20" s="55" t="n">
+        <x:v>136.714869</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
-      <x:c r="A21" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B21" s="47" t="s">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="C21" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D21" s="100" t="n">
-        <x:v>8.369408</x:v>
-      </x:c>
-      <x:c r="E21" s="100" t="n">
-        <x:v>-1.398136</x:v>
-      </x:c>
-      <x:c r="F21" s="112" t="n">
-        <x:v>20.1199200532978</x:v>
-      </x:c>
-      <x:c r="G21" s="100" t="n">
-        <x:v>22.2147197839298</x:v>
-      </x:c>
-      <x:c r="H21" s="100" t="n">
-        <x:v>4.41988950276243</x:v>
+      <x:c r="A21" s="46" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B21" s="46" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="C21" s="55" t="n">
+        <x:v>20.540541</x:v>
+      </x:c>
+      <x:c r="D21" s="55" t="n">
+        <x:v>11.80867</x:v>
+      </x:c>
+      <x:c r="E21" s="55" t="n">
+        <x:v>12.032086</x:v>
+      </x:c>
+      <x:c r="F21" s="55" t="s">
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" s="46" t="s">
-        <x:v>310</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B22" s="46" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="C22" s="55" t="n">
-        <x:v>0.1386</x:v>
-      </x:c>
-      <x:c r="D22" s="55" t="n">
-        <x:v>0.1502</x:v>
-      </x:c>
-      <x:c r="E22" s="55" t="n">
-        <x:v>0.1481</x:v>
-      </x:c>
-      <x:c r="F22" s="67" t="n">
-        <x:v>0.1803</x:v>
-      </x:c>
-      <x:c r="G22" s="55" t="n">
-        <x:v>0.181</x:v>
-      </x:c>
-      <x:c r="H22" s="55" t="n">
-        <x:v>0.189</x:v>
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="C22" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D22" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E22" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F22" s="55" t="n">
+        <x:v>-37.778054</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
-      <x:c r="A23" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B23" s="47" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="C23" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D23" s="100" t="n">
-        <x:v>8.36940836940837</x:v>
-      </x:c>
-      <x:c r="E23" s="100" t="n">
-        <x:v>-1.39813581890812</x:v>
-      </x:c>
-      <x:c r="F23" s="112" t="n">
-        <x:v>20.1199200532978</x:v>
-      </x:c>
-      <x:c r="G23" s="100" t="n">
-        <x:v>22.2147197839298</x:v>
-      </x:c>
-      <x:c r="H23" s="100" t="n">
-        <x:v>4.41988950276243</x:v>
+      <x:c r="A23" s="46" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B23" s="46" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="C23" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D23" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E23" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F23" s="55" t="n">
+        <x:v>-49.118791</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" s="46" t="s">
-        <x:v>312</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B24" s="46" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="C24" s="55" t="n">
-        <x:v>0.138432</x:v>
-      </x:c>
-      <x:c r="D24" s="55" t="n">
-        <x:v>0.152791</x:v>
-      </x:c>
-      <x:c r="E24" s="55" t="n">
-        <x:v>0.149345</x:v>
-      </x:c>
-      <x:c r="F24" s="67" t="n">
-        <x:v>0.173244</x:v>
-      </x:c>
-      <x:c r="G24" s="55" t="n">
-        <x:v>0.182</x:v>
-      </x:c>
-      <x:c r="H24" s="55" t="n">
-        <x:v>0.192</x:v>
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="C24" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D24" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E24" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F24" s="55" t="n">
+        <x:v>-4.752831</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
-      <x:c r="A25" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B25" s="47" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="C25" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D25" s="100" t="n">
-        <x:v>10.372602</x:v>
-      </x:c>
-      <x:c r="E25" s="100" t="n">
-        <x:v>-2.255368</x:v>
-      </x:c>
-      <x:c r="F25" s="112" t="n">
-        <x:v>13.4278325203784</x:v>
-      </x:c>
-      <x:c r="G25" s="100" t="n">
-        <x:v>21.8654792594328</x:v>
-      </x:c>
-      <x:c r="H25" s="100" t="n">
-        <x:v>5.4945054945055</x:v>
+      <x:c r="A25" s="46" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B25" s="46" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C25" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D25" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E25" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F25" s="55" t="n">
+        <x:v>16.884046</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" s="46" t="s">
-        <x:v>314</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B26" s="46" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="C26" s="55" t="n">
-        <x:v>0.1386</x:v>
-      </x:c>
-      <x:c r="D26" s="55" t="n">
-        <x:v>0.1502</x:v>
-      </x:c>
-      <x:c r="E26" s="55" t="n">
-        <x:v>0.1481</x:v>
-      </x:c>
-      <x:c r="F26" s="67" t="n">
-        <x:v>0.1803</x:v>
-      </x:c>
-      <x:c r="G26" s="55" t="n">
-        <x:v>0.181</x:v>
-      </x:c>
-      <x:c r="H26" s="55" t="n">
-        <x:v>0.189</x:v>
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="C26" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D26" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E26" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F26" s="55" t="n">
+        <x:v>10.977727</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
-      <x:c r="A27" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B27" s="47" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="C27" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D27" s="100" t="n">
-        <x:v>8.369408</x:v>
-      </x:c>
-      <x:c r="E27" s="100" t="n">
-        <x:v>-1.398136</x:v>
-      </x:c>
-      <x:c r="F27" s="112" t="n">
-        <x:v>20.1199200532978</x:v>
-      </x:c>
-      <x:c r="G27" s="100" t="n">
-        <x:v>22.2147197839298</x:v>
-      </x:c>
-      <x:c r="H27" s="100" t="n">
-        <x:v>4.41988950276243</x:v>
-      </x:c>
+      <x:c r="A27" s="46"/>
+      <x:c r="B27" s="49"/>
+      <x:c r="C27" s="49"/>
+      <x:c r="D27" s="49"/>
+      <x:c r="E27" s="49"/>
+      <x:c r="F27" s="49"/>
     </x:row>
     <x:row r="28">
       <x:c r="A28" s="46" t="s">
-        <x:v>316</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B28" s="46" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="C28" s="55" t="n">
-        <x:v>0.1386</x:v>
-      </x:c>
-      <x:c r="D28" s="55" t="n">
-        <x:v>0.1502</x:v>
-      </x:c>
-      <x:c r="E28" s="55" t="n">
-        <x:v>0.1481</x:v>
-      </x:c>
-      <x:c r="F28" s="67" t="n">
-        <x:v>0.1803</x:v>
-      </x:c>
-      <x:c r="G28" s="55" t="n">
-        <x:v>0.181</x:v>
-      </x:c>
-      <x:c r="H28" s="55" t="n">
-        <x:v>0.189</x:v>
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C28" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D28" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E28" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F28" s="55" t="n">
+        <x:v>7.040819</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
-      <x:c r="A29" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B29" s="47" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="C29" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D29" s="100" t="n">
-        <x:v>8.369408</x:v>
-      </x:c>
-      <x:c r="E29" s="100" t="n">
-        <x:v>-1.398136</x:v>
-      </x:c>
-      <x:c r="F29" s="112" t="n">
-        <x:v>20.1199200532978</x:v>
-      </x:c>
-      <x:c r="G29" s="100" t="n">
-        <x:v>22.2147197839298</x:v>
-      </x:c>
-      <x:c r="H29" s="100" t="n">
-        <x:v>4.41988950276243</x:v>
+      <x:c r="A29" s="46" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="B29" s="46" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C29" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D29" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E29" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F29" s="55" t="n">
+        <x:v>-38.137522</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" s="46" t="s">
-        <x:v>318</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B30" s="46" t="s">
-        <x:v>319</x:v>
-      </x:c>
-      <x:c r="C30" s="55" t="n">
-        <x:v>0.138432</x:v>
-      </x:c>
-      <x:c r="D30" s="55" t="n">
-        <x:v>0.152791</x:v>
-      </x:c>
-      <x:c r="E30" s="55" t="n">
-        <x:v>0.149345</x:v>
-      </x:c>
-      <x:c r="F30" s="67" t="n">
-        <x:v>0.173244</x:v>
-      </x:c>
-      <x:c r="G30" s="55" t="n">
-        <x:v>0.182</x:v>
-      </x:c>
-      <x:c r="H30" s="55" t="n">
-        <x:v>0.192</x:v>
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C30" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D30" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E30" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F30" s="55" t="n">
+        <x:v>772.737908</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
-      <x:c r="A31" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B31" s="47" t="s">
-        <x:v>319</x:v>
-      </x:c>
-      <x:c r="C31" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D31" s="100" t="n">
-        <x:v>10.3726017105872</x:v>
-      </x:c>
-      <x:c r="E31" s="100" t="n">
-        <x:v>-2.25536844447644</x:v>
-      </x:c>
-      <x:c r="F31" s="112" t="n">
-        <x:v>13.4278325203784</x:v>
-      </x:c>
-      <x:c r="G31" s="100" t="n">
-        <x:v>21.8654792594328</x:v>
-      </x:c>
-      <x:c r="H31" s="100" t="n">
-        <x:v>5.4945054945055</x:v>
+      <x:c r="A31" s="46" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B31" s="46" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C31" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D31" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E31" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F31" s="55" t="n">
+        <x:v>81.647771</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" s="46" t="s">
-        <x:v>320</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B32" s="46" t="s">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="C32" s="55" t="n">
-        <x:v>1.3222</x:v>
-      </x:c>
-      <x:c r="D32" s="55" t="n">
-        <x:v>0.1125</x:v>
-      </x:c>
-      <x:c r="E32" s="55" t="n">
-        <x:v>0.111</x:v>
-      </x:c>
-      <x:c r="F32" s="67"/>
-      <x:c r="G32" s="55" t="n">
-        <x:v>0.137</x:v>
-      </x:c>
-      <x:c r="H32" s="55" t="n">
-        <x:v>0.143</x:v>
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="C32" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D32" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E32" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F32" s="55" t="n">
+        <x:v>9.251764</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
-      <x:c r="A33" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B33" s="47" t="s">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="C33" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D33" s="100" t="n">
-        <x:v>-91.4914536378763</x:v>
-      </x:c>
-      <x:c r="E33" s="100" t="n">
-        <x:v>-1.33333333333333</x:v>
-      </x:c>
-      <x:c r="F33" s="112"/>
-      <x:c r="G33" s="100" t="n">
-        <x:v>23.4234234234234</x:v>
-      </x:c>
-      <x:c r="H33" s="100" t="n">
-        <x:v>4.37956204379562</x:v>
+      <x:c r="A33" s="46" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B33" s="46" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="C33" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D33" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E33" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F33" s="55" t="n">
+        <x:v>94.058833</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
@@ -5165,265 +5377,543 @@
       <x:c r="C34" s="49"/>
       <x:c r="D34" s="49"/>
       <x:c r="E34" s="49"/>
-      <x:c r="F34" s="61"/>
-      <x:c r="G34" s="49"/>
-      <x:c r="H34" s="49"/>
+      <x:c r="F34" s="49"/>
     </x:row>
     <x:row r="35">
-      <x:c r="A35" s="46" t="s">
-        <x:v>322</x:v>
-      </x:c>
-      <x:c r="B35" s="46" t="s">
-        <x:v>323</x:v>
-      </x:c>
-      <x:c r="C35" s="55" t="n">
-        <x:v>0.209154</x:v>
-      </x:c>
-      <x:c r="D35" s="55" t="n">
-        <x:v>0.168283</x:v>
-      </x:c>
-      <x:c r="E35" s="55" t="n">
-        <x:v>0.214069</x:v>
-      </x:c>
-      <x:c r="F35" s="67" t="n">
-        <x:v>2.1024838709677399E-001</x:v>
-      </x:c>
-      <x:c r="G35" s="55" t="n">
-        <x:v>0.218</x:v>
-      </x:c>
-      <x:c r="H35" s="55" t="n">
-        <x:v>0.248</x:v>
-      </x:c>
+      <x:c r="A35" s="36" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B35" s="73"/>
+      <x:c r="C35" s="73"/>
+      <x:c r="D35" s="73"/>
+      <x:c r="E35" s="73"/>
+      <x:c r="F35" s="73"/>
     </x:row>
     <x:row r="36">
-      <x:c r="A36" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B36" s="47" t="s">
-        <x:v>323</x:v>
-      </x:c>
-      <x:c r="C36" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D36" s="100" t="n">
-        <x:v>-19.5411036843666</x:v>
-      </x:c>
-      <x:c r="E36" s="100" t="n">
-        <x:v>27.2077393438434</x:v>
-      </x:c>
-      <x:c r="F36" s="112" t="n">
-        <x:v>-4.98803317315721</x:v>
-      </x:c>
-      <x:c r="G36" s="100" t="n">
-        <x:v>1.83632380213856</x:v>
-      </x:c>
-      <x:c r="H36" s="100" t="n">
-        <x:v>13.7614678899083</x:v>
-      </x:c>
+      <x:c r="A36" s="46"/>
+      <x:c r="B36" s="49"/>
+      <x:c r="C36" s="49"/>
+      <x:c r="D36" s="49"/>
+      <x:c r="E36" s="49"/>
+      <x:c r="F36" s="49"/>
     </x:row>
     <x:row r="37">
-      <x:c r="A37" s="46" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="B37" s="46" t="s">
-        <x:v>324</x:v>
-      </x:c>
-      <x:c r="C37" s="55" t="n">
-        <x:v>0.015725</x:v>
-      </x:c>
-      <x:c r="D37" s="55" t="n">
-        <x:v>0.074287</x:v>
-      </x:c>
-      <x:c r="E37" s="55" t="n">
-        <x:v>0.140337</x:v>
-      </x:c>
-      <x:c r="F37" s="67" t="n">
-        <x:v>9.5568914956011705E-002</x:v>
-      </x:c>
-      <x:c r="G37" s="55"/>
-      <x:c r="H37" s="55"/>
+      <x:c r="A37" s="46"/>
+      <x:c r="B37" s="49"/>
+      <x:c r="C37" s="49"/>
+      <x:c r="D37" s="49"/>
+      <x:c r="E37" s="49"/>
+      <x:c r="F37" s="49"/>
     </x:row>
     <x:row r="38">
-      <x:c r="A38" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B38" s="47" t="s">
-        <x:v>324</x:v>
-      </x:c>
-      <x:c r="C38" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D38" s="100" t="n">
-        <x:v>372.413354531002</x:v>
-      </x:c>
-      <x:c r="E38" s="100" t="n">
-        <x:v>88.9119226782613</x:v>
-      </x:c>
-      <x:c r="F38" s="112" t="n">
-        <x:v>-29.676272188583</x:v>
-      </x:c>
-      <x:c r="G38" s="100"/>
-      <x:c r="H38" s="100"/>
+      <x:c r="A38" s="46"/>
+      <x:c r="B38" s="49"/>
+      <x:c r="C38" s="49"/>
+      <x:c r="D38" s="49"/>
+      <x:c r="E38" s="49"/>
+      <x:c r="F38" s="49"/>
     </x:row>
     <x:row r="39">
-      <x:c r="A39" s="46"/>
-      <x:c r="B39" s="49"/>
-      <x:c r="C39" s="49"/>
-      <x:c r="D39" s="49"/>
-      <x:c r="E39" s="49"/>
-      <x:c r="F39" s="61"/>
-      <x:c r="G39" s="49"/>
-      <x:c r="H39" s="49"/>
+      <x:c r="A39" s="36" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B39" s="73"/>
+      <x:c r="C39" s="73"/>
+      <x:c r="D39" s="73"/>
+      <x:c r="E39" s="73"/>
+      <x:c r="F39" s="73"/>
     </x:row>
     <x:row r="40">
       <x:c r="A40" s="46" t="s">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B40" s="46" t="s">
-        <x:v>325</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C40" s="55" t="n">
-        <x:v>0.100192</x:v>
+        <x:v>22.545845</x:v>
       </x:c>
       <x:c r="D40" s="55" t="n">
-        <x:v>0.130369</x:v>
+        <x:v>7.321004</x:v>
       </x:c>
       <x:c r="E40" s="55" t="n">
-        <x:v>0.146433</x:v>
-      </x:c>
-      <x:c r="F40" s="67" t="n">
-        <x:v>9.4520527859237494E-002</x:v>
-      </x:c>
-      <x:c r="G40" s="55"/>
-      <x:c r="H40" s="55"/>
+        <x:v>13.011901</x:v>
+      </x:c>
+      <x:c r="F40" s="55" t="n">
+        <x:v>-2.488217</x:v>
+      </x:c>
     </x:row>
     <x:row r="41">
-      <x:c r="A41" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B41" s="47" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="C41" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D41" s="100" t="n">
-        <x:v>30.1191711913127</x:v>
-      </x:c>
-      <x:c r="E41" s="100" t="n">
-        <x:v>12.3219477022912</x:v>
-      </x:c>
-      <x:c r="F41" s="112"/>
-      <x:c r="G41" s="100"/>
-      <x:c r="H41" s="100"/>
+      <x:c r="A41" s="46" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B41" s="46" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="C41" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D41" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E41" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F41" s="55" t="n">
+        <x:v>0.499648</x:v>
+      </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" s="46" t="s">
-        <x:v>326</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B42" s="46" t="s">
-        <x:v>327</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C42" s="55" t="n">
-        <x:v>0.470364</x:v>
+        <x:v>79.707917</x:v>
       </x:c>
       <x:c r="D42" s="55" t="n">
-        <x:v>0.517371</x:v>
+        <x:v>3.342295</x:v>
       </x:c>
       <x:c r="E42" s="55" t="n">
-        <x:v>0.556634</x:v>
-      </x:c>
-      <x:c r="F42" s="67" t="n">
-        <x:v>5.6126891495601205E-001</x:v>
-      </x:c>
-      <x:c r="G42" s="55" t="n">
-        <x:v>0.609</x:v>
-      </x:c>
-      <x:c r="H42" s="55" t="n">
-        <x:v>0.667</x:v>
+        <x:v>20.303908</x:v>
+      </x:c>
+      <x:c r="F42" s="55" t="n">
+        <x:v>-5.399744</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
-      <x:c r="A43" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B43" s="47" t="s">
-        <x:v>327</x:v>
-      </x:c>
-      <x:c r="C43" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D43" s="100" t="n">
-        <x:v>9.99374952164707</x:v>
-      </x:c>
-      <x:c r="E43" s="100" t="n">
-        <x:v>7.58894487708046</x:v>
-      </x:c>
-      <x:c r="F43" s="112"/>
-      <x:c r="G43" s="100" t="n">
-        <x:v>9.40761793207027</x:v>
-      </x:c>
-      <x:c r="H43" s="100" t="n">
-        <x:v>9.52380952380953</x:v>
+      <x:c r="A43" s="46" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B43" s="46" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="C43" s="55" t="n">
+        <x:v>100.268393</x:v>
+      </x:c>
+      <x:c r="D43" s="55" t="n">
+        <x:v>9.389042</x:v>
+      </x:c>
+      <x:c r="E43" s="55" t="n">
+        <x:v>13.53416</x:v>
+      </x:c>
+      <x:c r="F43" s="55" t="n">
+        <x:v>1.29178</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" s="46" t="s">
-        <x:v>328</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B44" s="46" t="s">
-        <x:v>329</x:v>
-      </x:c>
-      <x:c r="C44" s="55" t="n">
-        <x:v>0.470364</x:v>
-      </x:c>
-      <x:c r="D44" s="55" t="n">
-        <x:v>0.517371</x:v>
-      </x:c>
-      <x:c r="E44" s="55" t="n">
-        <x:v>0.556634</x:v>
-      </x:c>
-      <x:c r="F44" s="67"/>
-      <x:c r="G44" s="55"/>
-      <x:c r="H44" s="55"/>
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="C44" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D44" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E44" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F44" s="55" t="n">
+        <x:v>10.943534</x:v>
+      </x:c>
     </x:row>
     <x:row r="45">
-      <x:c r="A45" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B45" s="47" t="s">
-        <x:v>329</x:v>
-      </x:c>
-      <x:c r="C45" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D45" s="100" t="n">
-        <x:v>9.99374952164707</x:v>
-      </x:c>
-      <x:c r="E45" s="100" t="n">
-        <x:v>7.58894487708046</x:v>
-      </x:c>
-      <x:c r="F45" s="112"/>
-      <x:c r="G45" s="100"/>
-      <x:c r="H45" s="100"/>
+      <x:c r="A45" s="46" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B45" s="46" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C45" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D45" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E45" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F45" s="55" t="n">
+        <x:v>10.943534</x:v>
+      </x:c>
     </x:row>
     <x:row r="46">
-      <x:c r="A46" s="43" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B46" s="43"/>
-      <x:c r="C46" s="43"/>
-      <x:c r="D46" s="43"/>
-      <x:c r="E46" s="43"/>
-      <x:c r="F46" s="43"/>
-      <x:c r="G46" s="43"/>
-      <x:c r="H46" s="43"/>
+      <x:c r="A46" s="46" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B46" s="46" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C46" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D46" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E46" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F46" s="55" t="n">
+        <x:v>10.968671</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" s="46"/>
+      <x:c r="B47" s="49"/>
+      <x:c r="C47" s="49"/>
+      <x:c r="D47" s="49"/>
+      <x:c r="E47" s="49"/>
+      <x:c r="F47" s="49"/>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" s="46" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B48" s="46" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C48" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D48" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E48" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F48" s="55" t="n">
+        <x:v>-3.16954</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" s="46" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B49" s="46" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="C49" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D49" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E49" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F49" s="55" t="n">
+        <x:v>11.546452</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" s="46" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B50" s="46" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="C50" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D50" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E50" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F50" s="55" t="n">
+        <x:v>-0.539078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" s="46" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B51" s="46" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C51" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D51" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E51" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F51" s="55" t="n">
+        <x:v>7.206407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" s="46" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B52" s="46" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C52" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D52" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E52" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F52" s="55" t="n">
+        <x:v>14.076664</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" s="46" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B53" s="46" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="C53" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D53" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E53" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F53" s="55" t="n">
+        <x:v>136.714869</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" s="46" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B54" s="46" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="C54" s="55" t="n">
+        <x:v>20.540541</x:v>
+      </x:c>
+      <x:c r="D54" s="55" t="n">
+        <x:v>11.80867</x:v>
+      </x:c>
+      <x:c r="E54" s="55" t="n">
+        <x:v>12.032086</x:v>
+      </x:c>
+      <x:c r="F54" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" s="46" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B55" s="46" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="C55" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D55" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E55" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F55" s="55" t="n">
+        <x:v>-37.778054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" s="46" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B56" s="46" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="C56" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D56" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E56" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F56" s="55" t="n">
+        <x:v>-49.118791</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" s="46" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B57" s="46" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="C57" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D57" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E57" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F57" s="55" t="n">
+        <x:v>-4.752831</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" s="46" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B58" s="46" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="C58" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D58" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E58" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F58" s="55" t="n">
+        <x:v>16.884046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" s="46" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B59" s="46" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="C59" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D59" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E59" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F59" s="55" t="n">
+        <x:v>10.977727</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" s="46"/>
+      <x:c r="B60" s="49"/>
+      <x:c r="C60" s="49"/>
+      <x:c r="D60" s="49"/>
+      <x:c r="E60" s="49"/>
+      <x:c r="F60" s="49"/>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" s="46" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B61" s="46" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="C61" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D61" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E61" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F61" s="55" t="n">
+        <x:v>7.040819</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" s="46" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="B62" s="46" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="C62" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D62" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E62" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F62" s="55" t="n">
+        <x:v>-38.137522</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" s="46" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B63" s="46" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="C63" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D63" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E63" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F63" s="55" t="n">
+        <x:v>772.737908</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" s="46" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B64" s="46" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="C64" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D64" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E64" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F64" s="55" t="n">
+        <x:v>9.251764</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" s="43" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B65" s="43"/>
+      <x:c r="C65" s="43"/>
+      <x:c r="D65" s="43"/>
+      <x:c r="E65" s="43"/>
+      <x:c r="F65" s="43"/>
     </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:cols>
     <x:col min="1" max="1" width="35.202857142857148" customWidth="1"/>
@@ -5446,7 +5936,7 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2" s="44" t="s">
-        <x:v>330</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B2" s="44"/>
       <x:c r="C2" s="44"/>
@@ -5466,7 +5956,7 @@
     </x:row>
     <x:row r="4">
       <x:c r="A4" s="33" t="s">
-        <x:v>294</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5487,2388 +5977,242 @@
     </x:row>
     <x:row r="5">
       <x:c r="A5" s="45" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B5" s="45"/>
       <x:c r="C5" s="35" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D5" s="35" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E5" s="35" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="D5" s="35" t="s">
+      <x:c r="F5" s="35" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="E5" s="35" t="s">
+      <x:c r="G5" s="35" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="F5" s="35" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="G5" s="35" t="s">
-        <x:v>260</x:v>
-      </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="A6" s="36" t="s">
-        <x:v>331</x:v>
-      </x:c>
-      <x:c r="B6" s="73"/>
-      <x:c r="C6" s="73"/>
-      <x:c r="D6" s="73"/>
-      <x:c r="E6" s="73"/>
-      <x:c r="F6" s="73"/>
-      <x:c r="G6" s="73"/>
+      <x:c r="A6" s="46" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B6" s="46" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C6" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D6" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E6" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F6" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G6" s="55" t="n">
+        <x:v>0.015</x:v>
+      </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="46" t="s">
-        <x:v>23</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B7" s="46" t="s">
-        <x:v>332</x:v>
-      </x:c>
-      <x:c r="C7" s="55" t="n">
-        <x:v>38.93914</x:v>
-      </x:c>
-      <x:c r="D7" s="55" t="n">
-        <x:v>7.560182</x:v>
-      </x:c>
-      <x:c r="E7" s="55" t="n">
-        <x:v>14.766576</x:v>
-      </x:c>
-      <x:c r="F7" s="55" t="n">
-        <x:v>-8.789993</x:v>
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="C7" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D7" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E7" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F7" s="55" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G7" s="55" t="n">
-        <x:v>7.616132</x:v>
+        <x:v>16.919936</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="46" t="s">
-        <x:v>280</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B8" s="46" t="s">
-        <x:v>333</x:v>
-      </x:c>
-      <x:c r="C8" s="55" t="n">
-        <x:v>-0.997038</x:v>
-      </x:c>
-      <x:c r="D8" s="55" t="n">
-        <x:v>12.098537</x:v>
-      </x:c>
-      <x:c r="E8" s="55" t="n">
-        <x:v>22.203661</x:v>
-      </x:c>
-      <x:c r="F8" s="55" t="n">
-        <x:v>14.55941</x:v>
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="C8" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D8" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E8" s="55" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F8" s="55" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G8" s="55" t="n">
-        <x:v>10.293953</x:v>
+        <x:v>5.910188</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" s="46" t="s">
-        <x:v>306</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B9" s="46" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="C9" s="55" t="n">
-        <x:v>-3.00169</x:v>
-      </x:c>
-      <x:c r="D9" s="55" t="n">
-        <x:v>16.646333</x:v>
-      </x:c>
-      <x:c r="E9" s="55" t="n">
-        <x:v>24.579428</x:v>
-      </x:c>
-      <x:c r="F9" s="55" t="n">
-        <x:v>13.806803</x:v>
-      </x:c>
-      <x:c r="G9" s="55" t="n">
-        <x:v>10.907421</x:v>
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="C9" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D9" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E9" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F9" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G9" s="52" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="46" t="s">
-        <x:v>335</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B10" s="46" t="s">
-        <x:v>336</x:v>
-      </x:c>
-      <x:c r="C10" s="55" t="n">
-        <x:v>11.099292</x:v>
-      </x:c>
-      <x:c r="D10" s="55" t="n">
-        <x:v>14.057123</x:v>
-      </x:c>
-      <x:c r="E10" s="55" t="n">
-        <x:v>20.596465</x:v>
-      </x:c>
-      <x:c r="F10" s="55" t="n">
-        <x:v>17.665775</x:v>
-      </x:c>
-      <x:c r="G10" s="55" t="n">
-        <x:v>-1.433215</x:v>
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="C10" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D10" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E10" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F10" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G10" s="52" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" s="46" t="s">
-        <x:v>337</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B11" s="46" t="s">
-        <x:v>338</x:v>
-      </x:c>
-      <x:c r="C11" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D11" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E11" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F11" s="55" t="n">
-        <x:v>8.369408</x:v>
-      </x:c>
-      <x:c r="G11" s="55" t="n">
-        <x:v>-1.398136</x:v>
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="C11" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D11" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E11" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F11" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G11" s="52" t="n">
+        <x:v>2.7</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" s="46" t="s">
-        <x:v>339</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B12" s="46" t="s">
-        <x:v>340</x:v>
-      </x:c>
-      <x:c r="C12" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D12" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E12" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F12" s="55" t="n">
-        <x:v>8.369408</x:v>
-      </x:c>
-      <x:c r="G12" s="55" t="n">
-        <x:v>-1.398136</x:v>
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="C12" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D12" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E12" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F12" s="52" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G12" s="52" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="46" t="s">
-        <x:v>341</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B13" s="46" t="s">
-        <x:v>342</x:v>
-      </x:c>
-      <x:c r="C13" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D13" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E13" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F13" s="55" t="n">
-        <x:v>10.372602</x:v>
-      </x:c>
-      <x:c r="G13" s="55" t="n">
-        <x:v>-2.255368</x:v>
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="C13" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D13" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E13" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F13" s="52" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G13" s="52" t="n">
+        <x:v>2.7</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" s="46" t="s">
-        <x:v>343</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B14" s="46" t="s">
-        <x:v>344</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C14" s="55" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D14" s="55" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E14" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F14" s="55" t="n">
-        <x:v>-91.491454</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="F14" s="55" t="s">
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G14" s="55" t="n">
-        <x:v>-1.333333</x:v>
+        <x:v>0.015</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
-      <x:c r="A15" s="46"/>
-      <x:c r="B15" s="49"/>
-      <x:c r="C15" s="49"/>
-      <x:c r="D15" s="49"/>
-      <x:c r="E15" s="49"/>
-      <x:c r="F15" s="49"/>
-      <x:c r="G15" s="49"/>
-    </x:row>
-    <x:row r="16">
-      <x:c r="A16" s="46" t="s">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="B16" s="46" t="s">
-        <x:v>346</x:v>
-      </x:c>
-      <x:c r="C16" s="55" t="n">
-        <x:v>7.961736</x:v>
-      </x:c>
-      <x:c r="D16" s="55" t="n">
-        <x:v>-6.952328</x:v>
-      </x:c>
-      <x:c r="E16" s="55" t="n">
-        <x:v>-14.853863</x:v>
-      </x:c>
-      <x:c r="F16" s="55" t="n">
-        <x:v>7.211989</x:v>
-      </x:c>
-      <x:c r="G16" s="55" t="n">
-        <x:v>12.267556</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17">
-      <x:c r="A17" s="46" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="B17" s="46" t="s">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="C17" s="55" t="n">
-        <x:v>17.601361</x:v>
-      </x:c>
-      <x:c r="D17" s="55" t="n">
-        <x:v>6.701641</x:v>
-      </x:c>
-      <x:c r="E17" s="55" t="n">
-        <x:v>-56.710601</x:v>
-      </x:c>
-      <x:c r="F17" s="55" t="n">
-        <x:v>13.998434</x:v>
-      </x:c>
-      <x:c r="G17" s="55" t="n">
-        <x:v>3.600842</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18">
-      <x:c r="A18" s="46" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="B18" s="46" t="s">
-        <x:v>350</x:v>
-      </x:c>
-      <x:c r="C18" s="55" t="n">
-        <x:v>14.086858</x:v>
-      </x:c>
-      <x:c r="D18" s="55" t="n">
-        <x:v>3.668389</x:v>
-      </x:c>
-      <x:c r="E18" s="55" t="n">
-        <x:v>11.185795</x:v>
-      </x:c>
-      <x:c r="F18" s="55" t="n">
-        <x:v>7.614416</x:v>
-      </x:c>
-      <x:c r="G18" s="55" t="n">
-        <x:v>4.769297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19">
-      <x:c r="A19" s="46" t="s">
-        <x:v>351</x:v>
-      </x:c>
-      <x:c r="B19" s="46" t="s">
-        <x:v>352</x:v>
-      </x:c>
-      <x:c r="C19" s="55" t="n">
-        <x:v>-117.30873</x:v>
-      </x:c>
-      <x:c r="D19" s="55" t="n">
-        <x:v>-162.416824</x:v>
-      </x:c>
-      <x:c r="E19" s="55" t="n">
-        <x:v>87.758655</x:v>
-      </x:c>
-      <x:c r="F19" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G19" s="55" t="n">
-        <x:v>2.184334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20">
-      <x:c r="A20" s="46" t="s">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="B20" s="46" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="C20" s="55" t="n">
-        <x:v>-5.234473</x:v>
-      </x:c>
-      <x:c r="D20" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E20" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F20" s="55" t="n">
-        <x:v>165.139043</x:v>
-      </x:c>
-      <x:c r="G20" s="55" t="n">
-        <x:v>7.286876</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21">
-      <x:c r="A21" s="46" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="B21" s="46" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C21" s="55" t="n">
-        <x:v>16.841266</x:v>
-      </x:c>
-      <x:c r="D21" s="55" t="n">
-        <x:v>18.627543</x:v>
-      </x:c>
-      <x:c r="E21" s="55" t="n">
-        <x:v>-39.211</x:v>
-      </x:c>
-      <x:c r="F21" s="55" t="n">
-        <x:v>-73.657088</x:v>
-      </x:c>
-      <x:c r="G21" s="55" t="n">
-        <x:v>40.460728</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22">
-      <x:c r="A22" s="46" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="B22" s="46" t="s">
-        <x:v>358</x:v>
-      </x:c>
-      <x:c r="C22" s="55" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D22" s="55" t="n">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E22" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F22" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G22" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23">
-      <x:c r="A23" s="46" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="B23" s="46" t="s">
-        <x:v>360</x:v>
-      </x:c>
-      <x:c r="C23" s="55" t="n">
-        <x:v>78.651685</x:v>
-      </x:c>
-      <x:c r="D23" s="55" t="n">
-        <x:v>-12.578616</x:v>
-      </x:c>
-      <x:c r="E23" s="55" t="n">
-        <x:v>29.496403</x:v>
-      </x:c>
-      <x:c r="F23" s="55" t="n">
-        <x:v>27.777778</x:v>
-      </x:c>
-      <x:c r="G23" s="55" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24">
-      <x:c r="A24" s="46" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="B24" s="46" t="s">
-        <x:v>362</x:v>
-      </x:c>
-      <x:c r="C24" s="55" t="n">
-        <x:v>1.382692</x:v>
-      </x:c>
-      <x:c r="D24" s="55" t="n">
-        <x:v>12.023889</x:v>
-      </x:c>
-      <x:c r="E24" s="55" t="n">
-        <x:v>7.7897</x:v>
-      </x:c>
-      <x:c r="F24" s="55" t="n">
-        <x:v>9.993691</x:v>
-      </x:c>
-      <x:c r="G24" s="55" t="n">
-        <x:v>7.588898</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25">
-      <x:c r="A25" s="46" t="s">
-        <x:v>363</x:v>
-      </x:c>
-      <x:c r="B25" s="46" t="s">
-        <x:v>364</x:v>
-      </x:c>
-      <x:c r="C25" s="55" t="n">
-        <x:v>20.972904</x:v>
-      </x:c>
-      <x:c r="D25" s="55" t="n">
-        <x:v>2.812349</x:v>
-      </x:c>
-      <x:c r="E25" s="55" t="n">
-        <x:v>14.700354</x:v>
-      </x:c>
-      <x:c r="F25" s="55" t="n">
-        <x:v>16.385883</x:v>
-      </x:c>
-      <x:c r="G25" s="55" t="n">
-        <x:v>4.594207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26">
-      <x:c r="A26" s="46" t="s">
-        <x:v>365</x:v>
-      </x:c>
-      <x:c r="B26" s="46" t="s">
-        <x:v>366</x:v>
-      </x:c>
-      <x:c r="C26" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D26" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E26" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F26" s="55" t="n">
-        <x:v>9.993691</x:v>
-      </x:c>
-      <x:c r="G26" s="55" t="n">
-        <x:v>7.588898</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27">
-      <x:c r="A27" s="46"/>
-      <x:c r="B27" s="49"/>
-      <x:c r="C27" s="49"/>
-      <x:c r="D27" s="49"/>
-      <x:c r="E27" s="49"/>
-      <x:c r="F27" s="49"/>
-      <x:c r="G27" s="49"/>
-    </x:row>
-    <x:row r="28">
-      <x:c r="A28" s="46" t="s">
-        <x:v>367</x:v>
-      </x:c>
-      <x:c r="B28" s="46" t="s">
-        <x:v>368</x:v>
-      </x:c>
-      <x:c r="C28" s="55" t="n">
-        <x:v>0.65636</x:v>
-      </x:c>
-      <x:c r="D28" s="55" t="n">
-        <x:v>26.91145</x:v>
-      </x:c>
-      <x:c r="E28" s="55" t="n">
-        <x:v>10.238036</x:v>
-      </x:c>
-      <x:c r="F28" s="55" t="n">
-        <x:v>-12.622461</x:v>
-      </x:c>
-      <x:c r="G28" s="55" t="n">
-        <x:v>27.207695</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29">
-      <x:c r="A29" s="46" t="s">
+      <x:c r="A15" s="43" t="s">
         <x:v>288</x:v>
       </x:c>
-      <x:c r="B29" s="46" t="s">
-        <x:v>369</x:v>
-      </x:c>
-      <x:c r="C29" s="55" t="n">
-        <x:v>624.071413</x:v>
-      </x:c>
-      <x:c r="D29" s="55" t="n">
-        <x:v>-10.236565</x:v>
-      </x:c>
-      <x:c r="E29" s="55" t="n">
-        <x:v>35.638165</x:v>
-      </x:c>
-      <x:c r="F29" s="55" t="n">
-        <x:v>-47.226713</x:v>
-      </x:c>
-      <x:c r="G29" s="55" t="n">
-        <x:v>-21.558246</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30">
-      <x:c r="A30" s="46" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="B30" s="46" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="C30" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D30" s="55" t="n">
-        <x:v>18.028169</x:v>
-      </x:c>
-      <x:c r="E30" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F30" s="55" t="n">
-        <x:v>662.68751</x:v>
-      </x:c>
-      <x:c r="G30" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31">
-      <x:c r="A31" s="46" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="B31" s="46" t="s">
-        <x:v>372</x:v>
-      </x:c>
-      <x:c r="C31" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D31" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E31" s="55" t="n">
-        <x:v>-66.629946</x:v>
-      </x:c>
-      <x:c r="F31" s="55" t="n">
-        <x:v>413.038723</x:v>
-      </x:c>
-      <x:c r="G31" s="55" t="n">
-        <x:v>88.91196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32">
-      <x:c r="A32" s="46" t="s">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="B32" s="46" t="s">
-        <x:v>374</x:v>
-      </x:c>
-      <x:c r="C32" s="55" t="n">
-        <x:v>2.744265</x:v>
-      </x:c>
-      <x:c r="D32" s="55" t="n">
-        <x:v>24.366769</x:v>
-      </x:c>
-      <x:c r="E32" s="55" t="n">
-        <x:v>9.58469</x:v>
-      </x:c>
-      <x:c r="F32" s="55" t="n">
-        <x:v>-9.13184</x:v>
-      </x:c>
-      <x:c r="G32" s="55" t="n">
-        <x:v>23.550573</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33">
-      <x:c r="A33" s="46" t="s">
-        <x:v>375</x:v>
-      </x:c>
-      <x:c r="B33" s="46" t="s">
-        <x:v>376</x:v>
-      </x:c>
-      <x:c r="C33" s="55" t="n">
-        <x:v>-95.822458</x:v>
-      </x:c>
-      <x:c r="D33" s="55" t="n">
-        <x:v>975.822311</x:v>
-      </x:c>
-      <x:c r="E33" s="55" t="n">
-        <x:v>-50.186943</x:v>
-      </x:c>
-      <x:c r="F33" s="55" t="n">
-        <x:v>228.845014</x:v>
-      </x:c>
-      <x:c r="G33" s="55" t="n">
-        <x:v>68.772859</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34">
-      <x:c r="A34" s="46"/>
-      <x:c r="B34" s="49"/>
-      <x:c r="C34" s="49"/>
-      <x:c r="D34" s="49"/>
-      <x:c r="E34" s="49"/>
-      <x:c r="F34" s="49"/>
-      <x:c r="G34" s="49"/>
-    </x:row>
-    <x:row r="35">
-      <x:c r="A35" s="36" t="s">
-        <x:v>377</x:v>
-      </x:c>
-      <x:c r="B35" s="73"/>
-      <x:c r="C35" s="73"/>
-      <x:c r="D35" s="73"/>
-      <x:c r="E35" s="73"/>
-      <x:c r="F35" s="73"/>
-      <x:c r="G35" s="73"/>
-    </x:row>
-    <x:row r="36">
-      <x:c r="A36" s="46" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B36" s="46" t="s">
-        <x:v>378</x:v>
-      </x:c>
-      <x:c r="C36" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D36" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E36" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F36" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G36" s="55" t="n">
-        <x:v>10.979378</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37">
-      <x:c r="A37" s="46" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="B37" s="46" t="s">
-        <x:v>379</x:v>
-      </x:c>
-      <x:c r="C37" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D37" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E37" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F37" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G37" s="55" t="n">
-        <x:v>11.373781</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38">
-      <x:c r="A38" s="46" t="s">
-        <x:v>306</x:v>
-      </x:c>
-      <x:c r="B38" s="46" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="C38" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D38" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E38" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F38" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G38" s="55" t="n">
-        <x:v>12.212719</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39">
-      <x:c r="A39" s="46" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="B39" s="46" t="s">
-        <x:v>381</x:v>
-      </x:c>
-      <x:c r="C39" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D39" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E39" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F39" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G39" s="55" t="n">
-        <x:v>12.126898</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40">
-      <x:c r="A40" s="46"/>
-      <x:c r="B40" s="49"/>
-      <x:c r="C40" s="49"/>
-      <x:c r="D40" s="49"/>
-      <x:c r="E40" s="49"/>
-      <x:c r="F40" s="49"/>
-      <x:c r="G40" s="49"/>
-    </x:row>
-    <x:row r="41">
-      <x:c r="A41" s="46" t="s">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="B41" s="46" t="s">
-        <x:v>382</x:v>
-      </x:c>
-      <x:c r="C41" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D41" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E41" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F41" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G41" s="55" t="n">
-        <x:v>0.583696</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42">
-      <x:c r="A42" s="46" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="B42" s="46" t="s">
-        <x:v>383</x:v>
-      </x:c>
-      <x:c r="C42" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D42" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E42" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F42" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G42" s="55" t="n">
-        <x:v>-8.494872</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43">
-      <x:c r="A43" s="46" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="B43" s="46" t="s">
-        <x:v>384</x:v>
-      </x:c>
-      <x:c r="C43" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D43" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E43" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F43" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G43" s="55" t="n">
-        <x:v>8.19499</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44">
-      <x:c r="A44" s="46" t="s">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="B44" s="46" t="s">
-        <x:v>385</x:v>
-      </x:c>
-      <x:c r="C44" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D44" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E44" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F44" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G44" s="55" t="n">
-        <x:v>17.95901</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45">
-      <x:c r="A45" s="46" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="B45" s="46" t="s">
-        <x:v>386</x:v>
-      </x:c>
-      <x:c r="C45" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D45" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E45" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F45" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G45" s="55" t="n">
-        <x:v>-20.792721</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46">
-      <x:c r="A46" s="46" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="B46" s="46" t="s">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="C46" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D46" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E46" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F46" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G46" s="55" t="n">
-        <x:v>-100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47">
-      <x:c r="A47" s="46" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="B47" s="46" t="s">
-        <x:v>388</x:v>
-      </x:c>
-      <x:c r="C47" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D47" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E47" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F47" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G47" s="55" t="n">
-        <x:v>20.911488</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48">
-      <x:c r="A48" s="46" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="B48" s="46" t="s">
-        <x:v>389</x:v>
-      </x:c>
-      <x:c r="C48" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D48" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E48" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F48" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G48" s="55" t="n">
-        <x:v>7.695459</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49">
-      <x:c r="A49" s="46" t="s">
-        <x:v>390</x:v>
-      </x:c>
-      <x:c r="B49" s="46" t="s">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="C49" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D49" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E49" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F49" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G49" s="55" t="n">
-        <x:v>11.671209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50">
-      <x:c r="A50" s="46"/>
-      <x:c r="B50" s="49"/>
-      <x:c r="C50" s="49"/>
-      <x:c r="D50" s="49"/>
-      <x:c r="E50" s="49"/>
-      <x:c r="F50" s="49"/>
-      <x:c r="G50" s="49"/>
-    </x:row>
-    <x:row r="51">
-      <x:c r="A51" s="46" t="s">
-        <x:v>367</x:v>
-      </x:c>
-      <x:c r="B51" s="46" t="s">
-        <x:v>392</x:v>
-      </x:c>
-      <x:c r="C51" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D51" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E51" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F51" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G51" s="55" t="n">
-        <x:v>9.374817</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52">
-      <x:c r="A52" s="46" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="B52" s="46" t="s">
-        <x:v>393</x:v>
-      </x:c>
-      <x:c r="C52" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D52" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E52" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F52" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G52" s="55" t="n">
-        <x:v>3.782785</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53">
-      <x:c r="A53" s="46" t="s">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="B53" s="46" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="C53" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D53" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E53" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F53" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G53" s="55" t="n">
-        <x:v>9.469634</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54">
-      <x:c r="A54" s="46" t="s">
-        <x:v>375</x:v>
-      </x:c>
-      <x:c r="B54" s="46" t="s">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="C54" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D54" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E54" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F54" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G54" s="55" t="n">
-        <x:v>4.438275</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55">
-      <x:c r="A55" s="46"/>
-      <x:c r="B55" s="49"/>
-      <x:c r="C55" s="49"/>
-      <x:c r="D55" s="49"/>
-      <x:c r="E55" s="49"/>
-      <x:c r="F55" s="49"/>
-      <x:c r="G55" s="49"/>
-    </x:row>
-    <x:row r="56">
-      <x:c r="A56" s="36" t="s">
-        <x:v>396</x:v>
-      </x:c>
-      <x:c r="B56" s="73"/>
-      <x:c r="C56" s="73"/>
-      <x:c r="D56" s="73"/>
-      <x:c r="E56" s="73"/>
-      <x:c r="F56" s="73"/>
-      <x:c r="G56" s="73"/>
-    </x:row>
-    <x:row r="57">
-      <x:c r="A57" s="46" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B57" s="46" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="C57" s="55" t="n">
-        <x:v>38.93914</x:v>
-      </x:c>
-      <x:c r="D57" s="55" t="n">
-        <x:v>7.560182</x:v>
-      </x:c>
-      <x:c r="E57" s="55" t="n">
-        <x:v>14.766576</x:v>
-      </x:c>
-      <x:c r="F57" s="55" t="n">
-        <x:v>-8.789993</x:v>
-      </x:c>
-      <x:c r="G57" s="55" t="n">
-        <x:v>7.616132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58">
-      <x:c r="A58" s="46" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="B58" s="46" t="s">
-        <x:v>398</x:v>
-      </x:c>
-      <x:c r="C58" s="55" t="n">
-        <x:v>-0.997038</x:v>
-      </x:c>
-      <x:c r="D58" s="55" t="n">
-        <x:v>12.098537</x:v>
-      </x:c>
-      <x:c r="E58" s="55" t="n">
-        <x:v>22.203661</x:v>
-      </x:c>
-      <x:c r="F58" s="55" t="n">
-        <x:v>14.55941</x:v>
-      </x:c>
-      <x:c r="G58" s="55" t="n">
-        <x:v>10.293953</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59">
-      <x:c r="A59" s="46" t="s">
-        <x:v>306</x:v>
-      </x:c>
-      <x:c r="B59" s="46" t="s">
-        <x:v>399</x:v>
-      </x:c>
-      <x:c r="C59" s="55" t="n">
-        <x:v>-3.00169</x:v>
-      </x:c>
-      <x:c r="D59" s="55" t="n">
-        <x:v>16.646333</x:v>
-      </x:c>
-      <x:c r="E59" s="55" t="n">
-        <x:v>24.579428</x:v>
-      </x:c>
-      <x:c r="F59" s="55" t="n">
-        <x:v>13.806803</x:v>
-      </x:c>
-      <x:c r="G59" s="55" t="n">
-        <x:v>10.907421</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60">
-      <x:c r="A60" s="46" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="B60" s="46" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="C60" s="55" t="n">
-        <x:v>11.099292</x:v>
-      </x:c>
-      <x:c r="D60" s="55" t="n">
-        <x:v>14.057123</x:v>
-      </x:c>
-      <x:c r="E60" s="55" t="n">
-        <x:v>20.596465</x:v>
-      </x:c>
-      <x:c r="F60" s="55" t="n">
-        <x:v>17.665775</x:v>
-      </x:c>
-      <x:c r="G60" s="55" t="n">
-        <x:v>-1.433215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61">
-      <x:c r="A61" s="46" t="s">
-        <x:v>337</x:v>
-      </x:c>
-      <x:c r="B61" s="46" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="C61" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D61" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E61" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F61" s="55" t="n">
-        <x:v>8.369408</x:v>
-      </x:c>
-      <x:c r="G61" s="55" t="n">
-        <x:v>-1.398136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62">
-      <x:c r="A62" s="46" t="s">
-        <x:v>339</x:v>
-      </x:c>
-      <x:c r="B62" s="46" t="s">
-        <x:v>402</x:v>
-      </x:c>
-      <x:c r="C62" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D62" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E62" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F62" s="55" t="n">
-        <x:v>8.369408</x:v>
-      </x:c>
-      <x:c r="G62" s="55" t="n">
-        <x:v>-1.398136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63">
-      <x:c r="A63" s="46" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="B63" s="46" t="s">
-        <x:v>403</x:v>
-      </x:c>
-      <x:c r="C63" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D63" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E63" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F63" s="55" t="n">
-        <x:v>10.372602</x:v>
-      </x:c>
-      <x:c r="G63" s="55" t="n">
-        <x:v>-2.255368</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64">
-      <x:c r="A64" s="46" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="B64" s="46" t="s">
-        <x:v>404</x:v>
-      </x:c>
-      <x:c r="C64" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D64" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E64" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F64" s="55" t="n">
-        <x:v>-91.491454</x:v>
-      </x:c>
-      <x:c r="G64" s="55" t="n">
-        <x:v>-1.333333</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65">
-      <x:c r="A65" s="46"/>
-      <x:c r="B65" s="49"/>
-      <x:c r="C65" s="49"/>
-      <x:c r="D65" s="49"/>
-      <x:c r="E65" s="49"/>
-      <x:c r="F65" s="49"/>
-      <x:c r="G65" s="49"/>
-    </x:row>
-    <x:row r="66">
-      <x:c r="A66" s="46" t="s">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="B66" s="46" t="s">
-        <x:v>405</x:v>
-      </x:c>
-      <x:c r="C66" s="55" t="n">
-        <x:v>7.961736</x:v>
-      </x:c>
-      <x:c r="D66" s="55" t="n">
-        <x:v>-6.952328</x:v>
-      </x:c>
-      <x:c r="E66" s="55" t="n">
-        <x:v>-14.853863</x:v>
-      </x:c>
-      <x:c r="F66" s="55" t="n">
-        <x:v>7.211989</x:v>
-      </x:c>
-      <x:c r="G66" s="55" t="n">
-        <x:v>12.267556</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67">
-      <x:c r="A67" s="46" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="B67" s="46" t="s">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="C67" s="55" t="n">
-        <x:v>17.601361</x:v>
-      </x:c>
-      <x:c r="D67" s="55" t="n">
-        <x:v>6.701641</x:v>
-      </x:c>
-      <x:c r="E67" s="55" t="n">
-        <x:v>-56.710601</x:v>
-      </x:c>
-      <x:c r="F67" s="55" t="n">
-        <x:v>13.998434</x:v>
-      </x:c>
-      <x:c r="G67" s="55" t="n">
-        <x:v>3.600842</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68">
-      <x:c r="A68" s="46" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="B68" s="46" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="C68" s="55" t="n">
-        <x:v>14.086858</x:v>
-      </x:c>
-      <x:c r="D68" s="55" t="n">
-        <x:v>3.668389</x:v>
-      </x:c>
-      <x:c r="E68" s="55" t="n">
-        <x:v>11.185795</x:v>
-      </x:c>
-      <x:c r="F68" s="55" t="n">
-        <x:v>7.614416</x:v>
-      </x:c>
-      <x:c r="G68" s="55" t="n">
-        <x:v>4.769297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69">
-      <x:c r="A69" s="46" t="s">
-        <x:v>351</x:v>
-      </x:c>
-      <x:c r="B69" s="46" t="s">
-        <x:v>408</x:v>
-      </x:c>
-      <x:c r="C69" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D69" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E69" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F69" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G69" s="55" t="n">
-        <x:v>2.184334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70">
-      <x:c r="A70" s="46" t="s">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="B70" s="46" t="s">
-        <x:v>409</x:v>
-      </x:c>
-      <x:c r="C70" s="55" t="n">
-        <x:v>-5.234473</x:v>
-      </x:c>
-      <x:c r="D70" s="55" t="n">
-        <x:v>-148.152383</x:v>
-      </x:c>
-      <x:c r="E70" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F70" s="55" t="n">
-        <x:v>165.139043</x:v>
-      </x:c>
-      <x:c r="G70" s="55" t="n">
-        <x:v>7.286876</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71">
-      <x:c r="A71" s="46" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="B71" s="46" t="s">
-        <x:v>410</x:v>
-      </x:c>
-      <x:c r="C71" s="55" t="n">
-        <x:v>16.841266</x:v>
-      </x:c>
-      <x:c r="D71" s="55" t="n">
-        <x:v>18.627543</x:v>
-      </x:c>
-      <x:c r="E71" s="55" t="n">
-        <x:v>-39.211</x:v>
-      </x:c>
-      <x:c r="F71" s="55" t="n">
-        <x:v>-73.657088</x:v>
-      </x:c>
-      <x:c r="G71" s="55" t="n">
-        <x:v>40.460728</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72">
-      <x:c r="A72" s="46" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="B72" s="46" t="s">
-        <x:v>411</x:v>
-      </x:c>
-      <x:c r="C72" s="55" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D72" s="55" t="n">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E72" s="55" t="n">
-        <x:v>-100</x:v>
-      </x:c>
-      <x:c r="F72" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G72" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73">
-      <x:c r="A73" s="46" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="B73" s="46" t="s">
-        <x:v>412</x:v>
-      </x:c>
-      <x:c r="C73" s="55" t="n">
-        <x:v>78.651685</x:v>
-      </x:c>
-      <x:c r="D73" s="55" t="n">
-        <x:v>-12.578616</x:v>
-      </x:c>
-      <x:c r="E73" s="55" t="n">
-        <x:v>29.496403</x:v>
-      </x:c>
-      <x:c r="F73" s="55" t="n">
-        <x:v>27.777778</x:v>
-      </x:c>
-      <x:c r="G73" s="55" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74">
-      <x:c r="A74" s="46" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="B74" s="46" t="s">
-        <x:v>413</x:v>
-      </x:c>
-      <x:c r="C74" s="55" t="n">
-        <x:v>1.382692</x:v>
-      </x:c>
-      <x:c r="D74" s="55" t="n">
-        <x:v>12.023889</x:v>
-      </x:c>
-      <x:c r="E74" s="55" t="n">
-        <x:v>7.7897</x:v>
-      </x:c>
-      <x:c r="F74" s="55" t="n">
-        <x:v>9.993691</x:v>
-      </x:c>
-      <x:c r="G74" s="55" t="n">
-        <x:v>7.588898</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75">
-      <x:c r="A75" s="46" t="s">
-        <x:v>363</x:v>
-      </x:c>
-      <x:c r="B75" s="46" t="s">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="C75" s="55" t="n">
-        <x:v>20.972904</x:v>
-      </x:c>
-      <x:c r="D75" s="55" t="n">
-        <x:v>2.812349</x:v>
-      </x:c>
-      <x:c r="E75" s="55" t="n">
-        <x:v>14.700354</x:v>
-      </x:c>
-      <x:c r="F75" s="55" t="n">
-        <x:v>16.385883</x:v>
-      </x:c>
-      <x:c r="G75" s="55" t="n">
-        <x:v>4.594207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76">
-      <x:c r="A76" s="46" t="s">
-        <x:v>365</x:v>
-      </x:c>
-      <x:c r="B76" s="46" t="s">
-        <x:v>415</x:v>
-      </x:c>
-      <x:c r="C76" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D76" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E76" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F76" s="55" t="n">
-        <x:v>9.993691</x:v>
-      </x:c>
-      <x:c r="G76" s="55" t="n">
-        <x:v>7.588898</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77">
-      <x:c r="A77" s="46"/>
-      <x:c r="B77" s="49"/>
-      <x:c r="C77" s="49"/>
-      <x:c r="D77" s="49"/>
-      <x:c r="E77" s="49"/>
-      <x:c r="F77" s="49"/>
-      <x:c r="G77" s="49"/>
-    </x:row>
-    <x:row r="78">
-      <x:c r="A78" s="46" t="s">
-        <x:v>367</x:v>
-      </x:c>
-      <x:c r="B78" s="46" t="s">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="C78" s="55" t="n">
-        <x:v>0.65636</x:v>
-      </x:c>
-      <x:c r="D78" s="55" t="n">
-        <x:v>26.91145</x:v>
-      </x:c>
-      <x:c r="E78" s="55" t="n">
-        <x:v>10.238036</x:v>
-      </x:c>
-      <x:c r="F78" s="55" t="n">
-        <x:v>-12.622461</x:v>
-      </x:c>
-      <x:c r="G78" s="55" t="n">
-        <x:v>27.207695</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79">
-      <x:c r="A79" s="46" t="s">
-        <x:v>288</x:v>
-      </x:c>
-      <x:c r="B79" s="46" t="s">
-        <x:v>417</x:v>
-      </x:c>
-      <x:c r="C79" s="55" t="n">
-        <x:v>624.071413</x:v>
-      </x:c>
-      <x:c r="D79" s="55" t="n">
-        <x:v>-10.236565</x:v>
-      </x:c>
-      <x:c r="E79" s="55" t="n">
-        <x:v>35.638165</x:v>
-      </x:c>
-      <x:c r="F79" s="55" t="n">
-        <x:v>-47.226713</x:v>
-      </x:c>
-      <x:c r="G79" s="55" t="n">
-        <x:v>-21.558246</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80">
-      <x:c r="A80" s="46" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="B80" s="46" t="s">
-        <x:v>418</x:v>
-      </x:c>
-      <x:c r="C80" s="55" t="n">
-        <x:v>-116.963281</x:v>
-      </x:c>
-      <x:c r="D80" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E80" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F80" s="55" t="n">
-        <x:v>662.68751</x:v>
-      </x:c>
-      <x:c r="G80" s="55" t="n">
-        <x:v>-151.215296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81">
-      <x:c r="A81" s="46" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="B81" s="46" t="s">
-        <x:v>419</x:v>
-      </x:c>
-      <x:c r="C81" s="55" t="n">
-        <x:v>-107.403922</x:v>
-      </x:c>
-      <x:c r="D81" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E81" s="55" t="n">
-        <x:v>-66.629946</x:v>
-      </x:c>
-      <x:c r="F81" s="55" t="n">
-        <x:v>413.038723</x:v>
-      </x:c>
-      <x:c r="G81" s="55" t="n">
-        <x:v>88.91196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82">
-      <x:c r="A82" s="46" t="s">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="B82" s="46" t="s">
-        <x:v>420</x:v>
-      </x:c>
-      <x:c r="C82" s="55" t="n">
-        <x:v>2.744265</x:v>
-      </x:c>
-      <x:c r="D82" s="55" t="n">
-        <x:v>24.366769</x:v>
-      </x:c>
-      <x:c r="E82" s="55" t="n">
-        <x:v>9.58469</x:v>
-      </x:c>
-      <x:c r="F82" s="55" t="n">
-        <x:v>-9.13184</x:v>
-      </x:c>
-      <x:c r="G82" s="55" t="n">
-        <x:v>23.550573</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83">
-      <x:c r="A83" s="46" t="s">
-        <x:v>375</x:v>
-      </x:c>
-      <x:c r="B83" s="46" t="s">
-        <x:v>421</x:v>
-      </x:c>
-      <x:c r="C83" s="55" t="n">
-        <x:v>-95.822458</x:v>
-      </x:c>
-      <x:c r="D83" s="55" t="n">
-        <x:v>975.822311</x:v>
-      </x:c>
-      <x:c r="E83" s="55" t="n">
-        <x:v>-50.186943</x:v>
-      </x:c>
-      <x:c r="F83" s="55" t="n">
-        <x:v>228.845014</x:v>
-      </x:c>
-      <x:c r="G83" s="55" t="n">
-        <x:v>68.772859</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84">
-      <x:c r="A84" s="43" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B84" s="43"/>
-      <x:c r="C84" s="43"/>
-      <x:c r="D84" s="43"/>
-      <x:c r="E84" s="43"/>
-      <x:c r="F84" s="43"/>
-      <x:c r="G84" s="43"/>
-    </x:row>
-  </x:sheetData>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:cols>
-    <x:col min="1" max="1" width="35.202857142857148" customWidth="1"/>
-    <x:col min="2" max="2" width="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.797714285714287" customWidth="1"/>
-    <x:col min="4" max="4" width="11.797714285714287" customWidth="1"/>
-    <x:col min="5" max="5" width="11.797714285714287" customWidth="1"/>
-    <x:col min="6" max="6" width="11.797714285714287" customWidth="1"/>
-    <x:col min="7" max="7" width="11.797714285714287" customWidth="1"/>
-    <x:col min="8" max="8" width="11.797714285714287" customWidth="1"/>
-    <x:col min="9" max="9" width="11.797714285714287" customWidth="1"/>
-    <x:col min="10" max="10" width="11.797714285714287" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1">
-      <x:c r="A1" s="2"/>
-      <x:c r="B1" s="2"/>
-      <x:c r="C1" s="2"/>
-      <x:c r="D1" s="2"/>
-      <x:c r="E1" s="2"/>
-      <x:c r="F1" s="2"/>
-      <x:c r="G1" s="2"/>
-      <x:c r="H1" s="2"/>
-      <x:c r="I1" s="2"/>
-      <x:c r="J1" s="2"/>
-    </x:row>
-    <x:row r="2">
-      <x:c r="A2" s="44" t="s">
-        <x:v>422</x:v>
-      </x:c>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="44"/>
-    </x:row>
-    <x:row r="3">
-      <x:c r="A3" s="31"/>
-      <x:c r="B3" s="31"/>
-      <x:c r="C3" s="31"/>
-      <x:c r="D3" s="31"/>
-      <x:c r="E3" s="31"/>
-      <x:c r="F3" s="31"/>
-      <x:c r="G3" s="31"/>
-      <x:c r="H3" s="31"/>
-      <x:c r="I3" s="31"/>
-      <x:c r="J3" s="31"/>
-    </x:row>
-    <x:row r="4">
-      <x:c r="A4" s="33" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="B4" s="33"/>
-      <x:c r="C4" s="34" t="s">
-        <x:v>423</x:v>
-      </x:c>
-      <x:c r="D4" s="34" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="E4" s="34" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="F4" s="34" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="G4" s="34" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="H4" s="34" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="I4" s="34" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="J4" s="34" t="s">
-        <x:v>254</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5">
-      <x:c r="A5" s="45" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="B5" s="45"/>
-      <x:c r="C5" s="35" t="s">
-        <x:v>424</x:v>
-      </x:c>
-      <x:c r="D5" s="35" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="E5" s="35" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="F5" s="35" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="G5" s="35" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="H5" s="35" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="I5" s="35" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="J5" s="35" t="s">
-        <x:v>263</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6">
-      <x:c r="A6" s="46" t="s">
-        <x:v>425</x:v>
-      </x:c>
-      <x:c r="B6" s="46" t="s">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="C6" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D6" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E6" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F6" s="55" t="n">
-        <x:v>1.3222</x:v>
-      </x:c>
-      <x:c r="G6" s="55" t="n">
-        <x:v>0.1125</x:v>
-      </x:c>
-      <x:c r="H6" s="55" t="n">
-        <x:v>0.111</x:v>
-      </x:c>
-      <x:c r="I6" s="55" t="n">
-        <x:v>0.137</x:v>
-      </x:c>
-      <x:c r="J6" s="55" t="n">
-        <x:v>0.143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="A7" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B7" s="47" t="s">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="C7" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D7" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E7" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F7" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G7" s="100" t="n">
-        <x:v>-91.4914536378763</x:v>
-      </x:c>
-      <x:c r="H7" s="100" t="n">
-        <x:v>-1.33333333333333</x:v>
-      </x:c>
-      <x:c r="I7" s="100" t="n">
-        <x:v>23.4234234234234</x:v>
-      </x:c>
-      <x:c r="J7" s="100" t="n">
-        <x:v>4.37956204379562</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="A8" s="46" t="s">
-        <x:v>426</x:v>
-      </x:c>
-      <x:c r="B8" s="46" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="C8" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D8" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E8" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F8" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G8" s="55" t="n">
-        <x:v>3.071429</x:v>
-      </x:c>
-      <x:c r="H8" s="55" t="n">
-        <x:v>2.783981</x:v>
-      </x:c>
-      <x:c r="I8" s="55"/>
-      <x:c r="J8" s="55"/>
-    </x:row>
-    <x:row r="9">
-      <x:c r="A9" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B9" s="47" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="C9" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D9" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E9" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F9" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G9" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="H9" s="100" t="n">
-        <x:v>-9.35877078714827</x:v>
-      </x:c>
-      <x:c r="I9" s="100"/>
-      <x:c r="J9" s="100"/>
-    </x:row>
-    <x:row r="10">
-      <x:c r="A10" s="46" t="s">
-        <x:v>428</x:v>
-      </x:c>
-      <x:c r="B10" s="46" t="s">
-        <x:v>429</x:v>
-      </x:c>
-      <x:c r="C10" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D10" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E10" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F10" s="55" t="n">
-        <x:v>1228.463261</x:v>
-      </x:c>
-      <x:c r="G10" s="55" t="n">
-        <x:v>74.89677</x:v>
-      </x:c>
-      <x:c r="H10" s="55" t="n">
-        <x:v>74.972666</x:v>
-      </x:c>
-      <x:c r="I10" s="55" t="n">
-        <x:v>75.2747252747253</x:v>
-      </x:c>
-      <x:c r="J10" s="55" t="n">
-        <x:v>74.4791666666667</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11">
-      <x:c r="A11" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B11" s="47" t="s">
-        <x:v>429</x:v>
-      </x:c>
-      <x:c r="C11" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D11" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E11" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F11" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G11" s="100" t="n">
-        <x:v>-93.9032144975152</x:v>
-      </x:c>
-      <x:c r="H11" s="100" t="n">
-        <x:v>1.0133414298106599E-001</x:v>
-      </x:c>
-      <x:c r="I11" s="100" t="n">
-        <x:v>4.0289253516112200E-001</x:v>
-      </x:c>
-      <x:c r="J11" s="100" t="n">
-        <x:v>-1.05687347931874</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12">
-      <x:c r="A12" s="46" t="s">
-        <x:v>430</x:v>
-      </x:c>
-      <x:c r="B12" s="46" t="s">
-        <x:v>431</x:v>
-      </x:c>
-      <x:c r="C12" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D12" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E12" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F12" s="55" t="n">
-        <x:v>0.081403</x:v>
-      </x:c>
-      <x:c r="G12" s="55" t="n">
-        <x:v>1.335171</x:v>
-      </x:c>
-      <x:c r="H12" s="55" t="n">
-        <x:v>1.333819</x:v>
-      </x:c>
-      <x:c r="I12" s="55"/>
-      <x:c r="J12" s="55"/>
-    </x:row>
-    <x:row r="13">
-      <x:c r="A13" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B13" s="47" t="s">
-        <x:v>431</x:v>
-      </x:c>
-      <x:c r="C13" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D13" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E13" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F13" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G13" s="100" t="n">
-        <x:v>1540.19876417331</x:v>
-      </x:c>
-      <x:c r="H13" s="100" t="n">
-        <x:v>-1.0126043780160100E-001</x:v>
-      </x:c>
-      <x:c r="I13" s="100"/>
-      <x:c r="J13" s="100"/>
-    </x:row>
-    <x:row r="14">
-      <x:c r="A14" s="46" t="s">
-        <x:v>432</x:v>
-      </x:c>
-      <x:c r="B14" s="46" t="s">
-        <x:v>433</x:v>
-      </x:c>
-      <x:c r="C14" s="55" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D14" s="55" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E14" s="55" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F14" s="55" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G14" s="55" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H14" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="I14" s="55"/>
-      <x:c r="J14" s="55"/>
-    </x:row>
-    <x:row r="15">
-      <x:c r="A15" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B15" s="47" t="s">
-        <x:v>433</x:v>
-      </x:c>
-      <x:c r="C15" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D15" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G15" s="100" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="I15" s="100"/>
-      <x:c r="J15" s="100"/>
-    </x:row>
-    <x:row r="16">
-      <x:c r="A16" s="46" t="s">
-        <x:v>434</x:v>
-      </x:c>
-      <x:c r="B16" s="46" t="s">
-        <x:v>435</x:v>
-      </x:c>
-      <x:c r="C16" s="52" t="n">
-        <x:v>-131.933</x:v>
-      </x:c>
-      <x:c r="D16" s="52" t="n">
-        <x:v>-300</x:v>
-      </x:c>
-      <x:c r="E16" s="52" t="n">
-        <x:v>-199.602</x:v>
-      </x:c>
-      <x:c r="F16" s="52" t="n">
-        <x:v>-1057.392</x:v>
-      </x:c>
-      <x:c r="G16" s="52" t="n">
-        <x:v>-351.912</x:v>
-      </x:c>
-      <x:c r="H16" s="52" t="n">
-        <x:v>-391.127</x:v>
-      </x:c>
-      <x:c r="I16" s="52"/>
-      <x:c r="J16" s="52"/>
-    </x:row>
-    <x:row r="17">
-      <x:c r="A17" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B17" s="47" t="s">
-        <x:v>435</x:v>
-      </x:c>
-      <x:c r="C17" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D17" s="100" t="n">
-        <x:v>127.388143982173</x:v>
-      </x:c>
-      <x:c r="E17" s="100" t="n">
-        <x:v>-33.466</x:v>
-      </x:c>
-      <x:c r="F17" s="100" t="n">
-        <x:v>429.750202903779</x:v>
-      </x:c>
-      <x:c r="G17" s="100" t="n">
-        <x:v>-66.7188705796904</x:v>
-      </x:c>
-      <x:c r="H17" s="100" t="n">
-        <x:v>11.1434108527132</x:v>
-      </x:c>
-      <x:c r="I17" s="100"/>
-      <x:c r="J17" s="100"/>
-    </x:row>
-    <x:row r="18">
-      <x:c r="A18" s="46" t="s">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="B18" s="46" t="s">
-        <x:v>437</x:v>
-      </x:c>
-      <x:c r="C18" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D18" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E18" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G18" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I18" s="52"/>
-      <x:c r="J18" s="52"/>
-    </x:row>
-    <x:row r="19">
-      <x:c r="A19" s="46" t="s">
-        <x:v>438</x:v>
-      </x:c>
-      <x:c r="B19" s="46" t="s">
-        <x:v>439</x:v>
-      </x:c>
-      <x:c r="C19" s="52" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D19" s="52" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E19" s="52" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F19" s="52" t="n">
-        <x:v>5347.562</x:v>
-      </x:c>
-      <x:c r="G19" s="52" t="n">
-        <x:v>383.625</x:v>
-      </x:c>
-      <x:c r="H19" s="52" t="n">
-        <x:v>378.51</x:v>
-      </x:c>
-      <x:c r="I19" s="52"/>
-      <x:c r="J19" s="52"/>
-    </x:row>
-    <x:row r="20">
-      <x:c r="A20" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B20" s="47" t="s">
-        <x:v>439</x:v>
-      </x:c>
-      <x:c r="C20" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D20" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E20" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F20" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G20" s="100" t="n">
-        <x:v>-92.82617</x:v>
-      </x:c>
-      <x:c r="H20" s="100" t="n">
-        <x:v>-1.333333</x:v>
-      </x:c>
-      <x:c r="I20" s="100"/>
-      <x:c r="J20" s="100"/>
-    </x:row>
-    <x:row r="21">
-      <x:c r="A21" s="46" t="s">
-        <x:v>440</x:v>
-      </x:c>
-      <x:c r="B21" s="46" t="s">
-        <x:v>441</x:v>
-      </x:c>
-      <x:c r="C21" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D21" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E21" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F21" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G21" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H21" s="52" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I21" s="52"/>
-      <x:c r="J21" s="52"/>
-    </x:row>
-    <x:row r="22">
-      <x:c r="A22" s="46" t="s">
-        <x:v>442</x:v>
-      </x:c>
-      <x:c r="B22" s="46" t="s">
-        <x:v>443</x:v>
-      </x:c>
-      <x:c r="C22" s="52" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D22" s="52" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E22" s="52" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F22" s="52" t="n">
-        <x:v>5347.562</x:v>
-      </x:c>
-      <x:c r="G22" s="52" t="n">
-        <x:v>383.625</x:v>
-      </x:c>
-      <x:c r="H22" s="52" t="n">
-        <x:v>378.51</x:v>
-      </x:c>
-      <x:c r="I22" s="52"/>
-      <x:c r="J22" s="52"/>
-    </x:row>
-    <x:row r="23">
-      <x:c r="A23" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B23" s="47" t="s">
-        <x:v>443</x:v>
-      </x:c>
-      <x:c r="C23" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D23" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E23" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F23" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G23" s="100" t="n">
-        <x:v>-92.8261701313608</x:v>
-      </x:c>
-      <x:c r="H23" s="100" t="n">
-        <x:v>-1.33333333333334</x:v>
-      </x:c>
-      <x:c r="I23" s="100"/>
-      <x:c r="J23" s="100"/>
-    </x:row>
-    <x:row r="24">
-      <x:c r="A24" s="46" t="s">
-        <x:v>444</x:v>
-      </x:c>
-      <x:c r="B24" s="46" t="s">
-        <x:v>445</x:v>
-      </x:c>
-      <x:c r="C24" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D24" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E24" s="55" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F24" s="55" t="n">
-        <x:v>1.3222</x:v>
-      </x:c>
-      <x:c r="G24" s="55" t="n">
-        <x:v>0.1125</x:v>
-      </x:c>
-      <x:c r="H24" s="55" t="n">
-        <x:v>0.111</x:v>
-      </x:c>
-      <x:c r="I24" s="55"/>
-      <x:c r="J24" s="55"/>
-    </x:row>
-    <x:row r="25">
-      <x:c r="A25" s="47" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="B25" s="47" t="s">
-        <x:v>445</x:v>
-      </x:c>
-      <x:c r="C25" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D25" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E25" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="F25" s="100" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G25" s="100" t="n">
-        <x:v>-91.4914536378763</x:v>
-      </x:c>
-      <x:c r="H25" s="100" t="n">
-        <x:v>-1.33333333333333</x:v>
-      </x:c>
-      <x:c r="I25" s="100"/>
-      <x:c r="J25" s="100"/>
-    </x:row>
-    <x:row r="26">
-      <x:c r="A26" s="43" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B26" s="43"/>
-      <x:c r="C26" s="43"/>
-      <x:c r="D26" s="43"/>
-      <x:c r="E26" s="43"/>
-      <x:c r="F26" s="43"/>
-      <x:c r="G26" s="43"/>
-      <x:c r="H26" s="43"/>
-      <x:c r="I26" s="43"/>
-      <x:c r="J26" s="43"/>
+      <x:c r="B15" s="43"/>
+      <x:c r="C15" s="43"/>
+      <x:c r="D15" s="43"/>
+      <x:c r="E15" s="43"/>
+      <x:c r="F15" s="43"/>
+      <x:c r="G15" s="43"/>
     </x:row>
   </x:sheetData>
 </x:worksheet>
@@ -7881,8 +6225,6 @@
     <x:col min="2" max="2" width="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.797714285714287" customWidth="1"/>
     <x:col min="4" max="4" width="11.797714285714287" customWidth="1"/>
-    <x:col min="5" max="5" width="11.797714285714287" customWidth="1"/>
-    <x:col min="6" max="6" width="11.797714285714287" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1">
@@ -7890,48 +6232,36 @@
       <x:c r="B1" s="2"/>
       <x:c r="C1" s="2"/>
       <x:c r="D1" s="2"/>
-      <x:c r="E1" s="2"/>
-      <x:c r="F1" s="2"/>
     </x:row>
     <x:row r="2">
       <x:c r="A2" s="44" t="s">
-        <x:v>446</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B2" s="44"/>
       <x:c r="C2" s="44"/>
       <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
     </x:row>
     <x:row r="3">
       <x:c r="A3" s="31"/>
       <x:c r="B3" s="31"/>
       <x:c r="C3" s="31"/>
       <x:c r="D3" s="31"/>
-      <x:c r="E3" s="31"/>
-      <x:c r="F3" s="31"/>
     </x:row>
     <x:row r="4">
       <x:c r="A4" s="33" t="s">
-        <x:v>294</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D4" s="34" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E4" s="34" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="F4" s="34" t="s">
-        <x:v>447</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" s="45" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B5" s="45"/>
       <x:c r="C5" s="35" t="s">
@@ -7940,188 +6270,118 @@
       <x:c r="D5" s="35" t="s">
         <x:v>259</x:v>
       </x:c>
-      <x:c r="E5" s="35" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="F5" s="35" t="s">
-        <x:v>448</x:v>
-      </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" s="36" t="s">
-        <x:v>449</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B6" s="36" t="s">
-        <x:v>450</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C6" s="79" t="n">
-        <x:v>2.53</x:v>
-      </x:c>
-      <x:c r="D6" s="79" t="n">
-        <x:v>3.36</x:v>
-      </x:c>
-      <x:c r="E6" s="79" t="n">
-        <x:v>4.12</x:v>
-      </x:c>
-      <x:c r="F6" s="91" t="n">
-        <x:v>4.34000015258789</x:v>
+        <x:v>1.13</x:v>
+      </x:c>
+      <x:c r="D6" s="91" t="n">
+        <x:v>1.22000002861023</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="A7" s="47" t="s">
-        <x:v>451</x:v>
-      </x:c>
-      <x:c r="B7" s="47" t="s">
-        <x:v>452</x:v>
-      </x:c>
-      <x:c r="C7" s="103" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="D7" s="103" t="n">
-        <x:v>32.806324</x:v>
-      </x:c>
-      <x:c r="E7" s="103" t="n">
-        <x:v>22.619048</x:v>
-      </x:c>
-      <x:c r="F7" s="115"/>
+      <x:c r="A7" s="46" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="B7" s="46" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="C7" s="55" t="n">
+        <x:v>0.7</x:v>
+      </x:c>
+      <x:c r="D7" s="67" t="n">
+        <x:v>1.23000001907349</x:v>
+      </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="46" t="s">
-        <x:v>453</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B8" s="46" t="s">
-        <x:v>454</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C8" s="55" t="n">
-        <x:v>2.5</x:v>
-      </x:c>
-      <x:c r="D8" s="55" t="n">
-        <x:v>2.54</x:v>
-      </x:c>
-      <x:c r="E8" s="55" t="n">
-        <x:v>3.31</x:v>
-      </x:c>
-      <x:c r="F8" s="67" t="n">
-        <x:v>4.30999994277954</x:v>
+        <x:v>1.46</x:v>
+      </x:c>
+      <x:c r="D8" s="67" t="n">
+        <x:v>1.23000001907349</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" s="46" t="s">
-        <x:v>455</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B9" s="46" t="s">
-        <x:v>456</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="C9" s="55" t="n">
-        <x:v>2.71</x:v>
-      </x:c>
-      <x:c r="D9" s="55" t="n">
-        <x:v>3.5</x:v>
-      </x:c>
-      <x:c r="E9" s="55" t="n">
-        <x:v>4.68</x:v>
-      </x:c>
-      <x:c r="F9" s="67" t="n">
-        <x:v>4.3600001335144</x:v>
+        <x:v>0.7</x:v>
+      </x:c>
+      <x:c r="D9" s="67" t="n">
+        <x:v>1.22000002861023</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
-      <x:c r="A10" s="46" t="s">
-        <x:v>457</x:v>
-      </x:c>
-      <x:c r="B10" s="46" t="s">
-        <x:v>458</x:v>
-      </x:c>
-      <x:c r="C10" s="55" t="n">
-        <x:v>2.5</x:v>
-      </x:c>
-      <x:c r="D10" s="55" t="n">
-        <x:v>2.45</x:v>
-      </x:c>
-      <x:c r="E10" s="55" t="n">
-        <x:v>3.29</x:v>
-      </x:c>
-      <x:c r="F10" s="67" t="n">
-        <x:v>4.30000019073486</x:v>
-      </x:c>
+      <x:c r="A10" s="36"/>
+      <x:c r="B10" s="73"/>
+      <x:c r="C10" s="73"/>
+      <x:c r="D10" s="85"/>
     </x:row>
     <x:row r="11">
-      <x:c r="A11" s="36"/>
-      <x:c r="B11" s="73"/>
-      <x:c r="C11" s="73"/>
-      <x:c r="D11" s="73"/>
-      <x:c r="E11" s="73"/>
-      <x:c r="F11" s="85"/>
+      <x:c r="A11" s="36" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B11" s="36" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C11" s="76" t="n">
+        <x:v>203.4</x:v>
+      </x:c>
+      <x:c r="D11" s="88" t="n">
+        <x:v>219.6</x:v>
+      </x:c>
     </x:row>
     <x:row r="12">
-      <x:c r="A12" s="36" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="B12" s="36" t="s">
-        <x:v>265</x:v>
-      </x:c>
-      <x:c r="C12" s="76" t="n">
-        <x:v>8627.3</x:v>
-      </x:c>
-      <x:c r="D12" s="76" t="n">
-        <x:v>11457.6</x:v>
-      </x:c>
-      <x:c r="E12" s="76" t="n">
-        <x:v>14049.2</x:v>
-      </x:c>
-      <x:c r="F12" s="88" t="n">
-        <x:v>14799.4</x:v>
+      <x:c r="A12" s="46" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B12" s="46" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="C12" s="55" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D12" s="67" t="n">
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="46" t="s">
-        <x:v>459</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B13" s="46" t="s">
-        <x:v>460</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C13" s="55" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="D13" s="55" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="E13" s="55" t="n">
-        <x:v>3410</x:v>
-      </x:c>
-      <x:c r="F13" s="67" t="n">
-        <x:v>3410</x:v>
+        <x:v>53.600002</x:v>
+      </x:c>
+      <x:c r="D13" s="67" t="n">
+        <x:v>32.5706</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
-      <x:c r="A14" s="46" t="s">
-        <x:v>461</x:v>
-      </x:c>
-      <x:c r="B14" s="46" t="s">
-        <x:v>462</x:v>
-      </x:c>
-      <x:c r="C14" s="55" t="n">
-        <x:v>1084.349976</x:v>
-      </x:c>
-      <x:c r="D14" s="55" t="n">
-        <x:v>479.155304</x:v>
-      </x:c>
-      <x:c r="E14" s="55" t="n">
-        <x:v>700.805176</x:v>
-      </x:c>
-      <x:c r="F14" s="67" t="n">
-        <x:v>1616.644</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
-      <x:c r="A15" s="43" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B15" s="43"/>
-      <x:c r="C15" s="43"/>
-      <x:c r="D15" s="43"/>
-      <x:c r="E15" s="43"/>
-      <x:c r="F15" s="43"/>
+      <x:c r="A14" s="43" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B14" s="43"/>
+      <x:c r="C14" s="43"/>
+      <x:c r="D14" s="43"/>
     </x:row>
   </x:sheetData>
 </x:worksheet>
